--- a/doc/hupf/Gene system curation 3-30.xlsx
+++ b/doc/hupf/Gene system curation 3-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E56F97F-8D2A-4CAA-8E25-7B178301F531}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFED2AD-F58B-4EED-AD6D-AD9260E5F6D8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{AE776980-F0A1-4113-8D99-14151E991525}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1006">
   <si>
     <t>Muscle pain and aches</t>
   </si>
@@ -2753,6 +2753,334 @@
   </si>
   <si>
     <t>Unused Gene</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=16827966</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.231342446C&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6445832</t>
+  </si>
+  <si>
+    <t>NC_000003.12:g.56871895G&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=17120254</t>
+  </si>
+  <si>
+    <t>CM000676.2:g.84743518A&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2249954</t>
+  </si>
+  <si>
+    <t>NC_000014.9:g.91917655C&gt;A</t>
+  </si>
+  <si>
+    <t>NC_000001.11:g.239681977A&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1867264</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5536760/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5326681/</t>
+  </si>
+  <si>
+    <t>NC_000001.11:g.239687288C&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6688537</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=7010471</t>
+  </si>
+  <si>
+    <t>CM000670.2:g.96338727A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/?term=rs363236</t>
+  </si>
+  <si>
+    <t>NC_000010.11:g.117278860C&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=363236</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2724734/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=929493</t>
+  </si>
+  <si>
+    <t>NC_000010.11:g.117259615C&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000019.10:g.1650135A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1860661</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24275212</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19772578</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/18208403</t>
+  </si>
+  <si>
+    <t>NC_000011.10:g.2165105A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2070762</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=4074905</t>
+  </si>
+  <si>
+    <t>NC_000011.10:g.2167955G&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/259546/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NM_004813.2(PEX16):c.542-16C&gt;T NC_000011.10:g.45914484G&gt;A </t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1426137</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78904323T&gt;A</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78845523T&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1426139</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3775513</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78855950T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3775516</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78822912C&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3775525</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78778781A&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3822106</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78863373G&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6850116</t>
+  </si>
+  <si>
+    <t>NC_000004.12:g.78888378G&gt;T</t>
+  </si>
+  <si>
+    <t>NC_000005.10:g.135086514T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=254577</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=41378447</t>
+  </si>
+  <si>
+    <t>NC_000006.12:g.22141516C&gt;T</t>
+  </si>
+  <si>
+    <t>CM000680.2:g.37241025T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=948440</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10787901</t>
+  </si>
+  <si>
+    <t>NC_000010.11:g.119059941A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1523773</t>
+  </si>
+  <si>
+    <t>NC_000003.12:g.97300204A&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4262465/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2071376</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.112777818G&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28119174</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25805645</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1799836</t>
+  </si>
+  <si>
+    <t>NC_000023.11:g.43768752T&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=12235235</t>
+  </si>
+  <si>
+    <t>NC_000009.11:g.36091133G&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=7849492</t>
+  </si>
+  <si>
+    <t>CM000671.2:g.119856753T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3095598</t>
+  </si>
+  <si>
+    <t>NC_000016.10:g.52532950A&gt;G
+NG_012623.1:g.19853T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=12312259</t>
+  </si>
+  <si>
+    <t>CM000674.2:g.91754952A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=9585049</t>
+  </si>
+  <si>
+    <t>CM000675.2:g.99394905A&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=25531</t>
+  </si>
+  <si>
+    <t>NC_000017.11:g.30237328T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29114103</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/?term=rs1923885%5Btitle%2Fabstract%5D</t>
+  </si>
+  <si>
+    <t>NC_000013.11:g.[46848951T&gt;C]</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1923885</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2937164/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1007311</t>
+  </si>
+  <si>
+    <t>NC_000007.14:g.150998920A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=743507</t>
+  </si>
+  <si>
+    <t>NC_000007.14:g.151010400C&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/20409549</t>
+  </si>
+  <si>
+    <t>NM_000603.4(NOS3):c.2984+15A&gt;G  NC_000007.14:g.151011001A&gt;G</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/403250/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/22425436</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/17579350</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=10118380</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70790948T&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=7022747</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70820112G&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=7038646</t>
+  </si>
+  <si>
+    <t>NC_000009.12:g.70822908A&gt;G</t>
+  </si>
+  <si>
+    <t>NM_002187.2(IL12B):c.*1095C&gt;A NC_000005.10:g.159315006G&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/clinvar/variation/352554/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5660264/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=270838</t>
+  </si>
+  <si>
+    <t>NC_000002.11:g.7783504A&gt;C</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=3913434</t>
+  </si>
+  <si>
+    <t>NC_000001.11:g.36983994C&gt;T</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=242940</t>
+  </si>
+  <si>
+    <t>NC_000017.11:g.45815234A&gt;G</t>
+  </si>
+  <si>
+    <t>NC_000011.10:g.101073644G&gt;A</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=685828</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=6719311</t>
+  </si>
+  <si>
+    <t>NC_000002.12:g.233974736A&gt;G</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +3263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -3096,6 +3424,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3412,11 +3746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DF04C-3111-444E-98EC-564437C0A4FF}">
-  <dimension ref="A1:AA238"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3609,7 +3943,7 @@
       <c r="E5" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="25" t="s">
         <v>746</v>
       </c>
       <c r="G5" s="31" t="s">
@@ -3683,7 +4017,7 @@
       <c r="E8" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="25" t="s">
         <v>746</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -3794,7 +4128,7 @@
       <c r="E12" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="25" t="s">
         <v>822</v>
       </c>
       <c r="G12" s="33" t="s">
@@ -3904,76 +4238,98 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="G16" s="34"/>
+        <v>734</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>971</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="M16" s="31"/>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>735</v>
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>523</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="34"/>
+        <v>822</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="I17" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="O17" s="31"/>
     </row>
-    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>467</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>550</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="F18" s="51" t="s">
-        <v>822</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="O18" s="31"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>25</v>
       </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="W18" s="36"/>
+    </row>
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>552</v>
+      </c>
       <c r="E19" s="40"/>
-      <c r="F19" s="30" t="s">
-        <v>222</v>
-      </c>
+      <c r="F19" s="30"/>
       <c r="G19" s="35" t="s">
         <v>222</v>
       </c>
@@ -3986,37 +4342,30 @@
       <c r="W19" s="36"/>
     </row>
     <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>552</v>
+      <c r="B20" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>554</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="31"/>
       <c r="W20" s="36"/>
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>360</v>
+      <c r="B21" s="40" t="s">
+        <v>363</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="30"/>
@@ -4026,13 +4375,13 @@
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="30"/>
@@ -4041,14 +4390,14 @@
       <c r="W22" s="36"/>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
-        <v>364</v>
+      <c r="B23" s="29" t="s">
+        <v>362</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="30"/>
@@ -4058,56 +4407,56 @@
     </row>
     <row r="24" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="31"/>
+        <v>359</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="W24" s="36"/>
     </row>
     <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="E25" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="B25" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="31"/>
       <c r="W25" s="36"/>
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>365</v>
+      <c r="B26" s="29" t="s">
+        <v>361</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="30"/>
@@ -4115,27 +4464,40 @@
       <c r="H26" s="31"/>
       <c r="W26" s="36"/>
     </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>558</v>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="E27" s="40"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="31"/>
-      <c r="W27" s="36"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="40"/>
+      <c r="F27" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>523</v>
+      </c>
       <c r="F28" s="50" t="s">
         <v>222</v>
       </c>
@@ -4145,22 +4507,23 @@
       <c r="H28" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="M28" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="I28" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>561</v>
+      <c r="B29" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>562</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>523</v>
@@ -4174,26 +4537,20 @@
       <c r="H29" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>220</v>
-      </c>
       <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>485</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>562</v>
+      <c r="B30" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>560</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F30" s="50" t="s">
         <v>222</v>
@@ -4204,85 +4561,93 @@
       <c r="H30" s="29" t="s">
         <v>220</v>
       </c>
+      <c r="I30" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="M30" s="31"/>
     </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>526</v>
-      </c>
-      <c r="F31" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>483</v>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="J31" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="M31" s="31"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="40"/>
+    </row>
+    <row r="32" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>538</v>
+      </c>
       <c r="F32" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I32" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="J32" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="P32" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>438</v>
+        <v>342</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="H33" s="34" t="s">
+      <c r="G33" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I33" s="31" t="s">
-        <v>496</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="K33" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="J33" s="29" t="s">
         <v>220</v>
       </c>
       <c r="O33" s="22" t="s">
@@ -4292,546 +4657,597 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>493</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>248</v>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49" t="s">
+        <v>875</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>976</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/C34"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/C34</v>
       </c>
       <c r="G34" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I34" s="31" t="s">
-        <v>495</v>
+        <v>974</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="O34" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="P34" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
+      <c r="O34" s="22"/>
+      <c r="R34" s="29" t="s">
+        <v>977</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="30"/>
       <c r="G35" s="34"/>
       <c r="I35" s="31"/>
-      <c r="O35" s="22"/>
     </row>
     <row r="36" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="34"/>
-      <c r="I36" s="31"/>
+        <v>566</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>220</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="34"/>
       <c r="I37" s="31" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J37" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="L37" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="N37" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="30"/>
       <c r="G38" s="34"/>
+      <c r="H38" s="22" t="s">
+        <v>491</v>
+      </c>
       <c r="I38" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J38" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L38" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>565</v>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="E39" s="40"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="J39" s="29" t="s">
+      <c r="F39" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M39" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q39" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="L40" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="M40" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="N40" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P40" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q40" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+      <c r="B40" s="49" t="s">
         <v>888</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="F41" s="51" t="str">
+      <c r="C40" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>978</v>
+      </c>
+      <c r="F40" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
       </c>
-      <c r="G41" s="30"/>
+      <c r="G40" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="P40" s="31"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>980</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>220</v>
+      </c>
       <c r="J41" s="31"/>
       <c r="K41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="P41" s="31"/>
+      <c r="P41" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q41" s="29" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="F42" s="51" t="s">
-        <v>746</v>
-      </c>
-      <c r="G42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="B42" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>983</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>984</v>
+      </c>
+      <c r="F42" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>986</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="K42" s="31"/>
       <c r="M42" s="31"/>
-      <c r="P42" s="31"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B43" s="49" t="s">
-        <v>536</v>
-      </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="F43" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-      <c r="G43" s="30"/>
+      <c r="P42" s="31" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q42" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>220</v>
+      </c>
       <c r="J43" s="31"/>
       <c r="K43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="P43" s="31"/>
-    </row>
-    <row r="44" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="E44" s="40" t="s">
+      <c r="L43" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P43" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q43" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E45" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="M44" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="P44" s="31" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q44" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="30" t="s">
-        <v>226</v>
+      <c r="F45" s="25" t="s">
+        <v>859</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="29" t="s">
         <v>220</v>
       </c>
       <c r="I45" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="J45" s="29" t="s">
+        <v>571</v>
+      </c>
+      <c r="J45" s="31" t="s">
         <v>220</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="M45" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="M45" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
-        <v>430</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="E46" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="I46" s="31"/>
+      <c r="L46" s="31"/>
+    </row>
+    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="40" t="s">
+        <v>664</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>667</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="E47" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="F46" s="51" t="s">
-        <v>859</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="I46" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="L46" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B47" s="40" t="s">
-        <v>418</v>
-      </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="51" t="s">
-        <v>822</v>
+      <c r="F47" s="25" t="s">
+        <v>892</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="I47" s="31"/>
-      <c r="L47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="L47" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="W47" s="36"/>
     </row>
     <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>667</v>
+        <v>370</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>477</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>666</v>
+        <v>559</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>892</v>
+        <v>524</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>816</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+        <v>226</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="L48" s="22" t="s">
-        <v>665</v>
+        <v>479</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="N48" s="22"/>
-      <c r="Q48" s="22"/>
+        <v>480</v>
+      </c>
+      <c r="N48" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="O48" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="R48" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="W48" s="36"/>
     </row>
-    <row r="49" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>559</v>
+        <v>431</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>578</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>816</v>
+        <v>525</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>859</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="J49" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="M49" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="N49" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="O49" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q49" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="R49" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="W49" s="36"/>
-    </row>
-    <row r="50" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="40" t="s">
-        <v>431</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="E50" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="J49" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="M49" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q50" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="E51" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="F50" s="51" t="s">
-        <v>859</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="J50" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L50" s="31" t="s">
-        <v>576</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G51" s="30" t="s">
+      <c r="F51" s="50" t="s">
         <v>222</v>
       </c>
+      <c r="G51" s="37" t="s">
+        <v>222</v>
+      </c>
       <c r="H51" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="P51" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q51" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>580</v>
-      </c>
-      <c r="E52" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="F52" s="50" t="s">
+      <c r="P51" s="31"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>987</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="P52" s="31"/>
+    </row>
+    <row r="53" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>583</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="P53" s="31"/>
+    </row>
+    <row r="54" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="F54" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G54" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H52" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P52" s="31"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48" t="s">
-        <v>687</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="F53" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="G53" s="30"/>
-      <c r="H53" s="22"/>
-      <c r="P53" s="31"/>
-    </row>
-    <row r="54" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>583</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
+      <c r="H54" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="P54" s="31"/>
     </row>
-    <row r="55" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B55" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>397</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="E55" s="40" t="s">
         <v>526</v>
@@ -4842,20 +5258,20 @@
       <c r="G55" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="46" t="s">
         <v>220</v>
       </c>
       <c r="P55" s="31"/>
     </row>
-    <row r="56" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>397</v>
+        <v>398</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>399</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E56" s="40" t="s">
         <v>526</v>
@@ -4866,23 +5282,23 @@
       <c r="G56" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H56" s="46" t="s">
+      <c r="H56" s="29" t="s">
         <v>220</v>
       </c>
       <c r="P56" s="31"/>
     </row>
-    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="40" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F57" s="50" t="s">
         <v>222</v>
@@ -4895,90 +5311,111 @@
       </c>
       <c r="P57" s="31"/>
     </row>
-    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>405</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>579</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>523</v>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>525</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="H58" s="29" t="s">
-        <v>220</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H58" s="22"/>
       <c r="P58" s="31"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="D59" s="49"/>
+        <v>837</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>992</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>991</v>
+      </c>
       <c r="E59" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="G59" s="30"/>
+        <v>527</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>220</v>
+      </c>
       <c r="H59" s="22"/>
       <c r="P59" s="31"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48" t="s">
-        <v>837</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="48" t="s">
-        <v>527</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>828</v>
+    <row r="60" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="G60" s="30"/>
-      <c r="H60" s="22"/>
+      <c r="H60" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="P60" s="31"/>
     </row>
-    <row r="61" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="D61" s="45" t="s">
-        <v>593</v>
-      </c>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="40"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P61" s="31"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="40"/>
+      <c r="F61" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M61" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="N61" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="E62" s="40" t="s">
+        <v>570</v>
+      </c>
       <c r="F62" s="30" t="s">
         <v>233</v>
       </c>
@@ -4995,84 +5432,97 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="D63" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>570</v>
-      </c>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>220</v>
+        <v>224</v>
+      </c>
+      <c r="G63" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="L63" s="31" t="s">
+        <v>258</v>
       </c>
       <c r="M63" s="31" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="N63" s="29" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="G64" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="L64" s="31" t="s">
-        <v>258</v>
-      </c>
+      <c r="O63" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="P63" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L64" s="31"/>
       <c r="M64" s="31" t="s">
-        <v>224</v>
+        <v>436</v>
       </c>
       <c r="N64" s="29" t="s">
         <v>220</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="P64" s="29" t="s">
+        <v>600</v>
+      </c>
+      <c r="P64" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="29" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="F65" s="51" t="s">
-        <v>859</v>
+        <v>603</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>822</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>435</v>
+        <v>608</v>
       </c>
       <c r="H65" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I65" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="J65" s="29" t="s">
         <v>220</v>
       </c>
       <c r="L65" s="31"/>
@@ -5083,7 +5533,7 @@
         <v>220</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>600</v>
+        <v>436</v>
       </c>
       <c r="P65" s="31" t="s">
         <v>220</v>
@@ -5091,28 +5541,28 @@
     </row>
     <row r="66" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E66" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="F66" s="51" t="s">
-        <v>822</v>
+      <c r="F66" s="25" t="s">
+        <v>859</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>608</v>
+        <v>435</v>
       </c>
       <c r="H66" s="29" t="s">
         <v>220</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>220</v>
@@ -5131,32 +5581,26 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="29" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>859</v>
+        <v>525</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>892</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>435</v>
       </c>
       <c r="H67" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I67" s="22" t="s">
-        <v>609</v>
-      </c>
-      <c r="J67" s="29" t="s">
         <v>220</v>
       </c>
       <c r="L67" s="31"/>
@@ -5173,26 +5617,32 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>610</v>
+        <v>433</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>615</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="F68" s="51" t="s">
-        <v>892</v>
+        <v>604</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>859</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>435</v>
       </c>
       <c r="H68" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="J68" s="29" t="s">
         <v>220</v>
       </c>
       <c r="L68" s="31"/>
@@ -5206,23 +5656,29 @@
         <v>436</v>
       </c>
       <c r="P68" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q68" s="22" t="s">
+        <v>611</v>
+      </c>
+      <c r="R68" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>615</v>
+        <v>432</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>617</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="E69" s="40" t="s">
         <v>604</v>
       </c>
-      <c r="F69" s="51" t="s">
+      <c r="F69" s="25" t="s">
         <v>859</v>
       </c>
       <c r="G69" s="25" t="s">
@@ -5232,7 +5688,7 @@
         <v>220</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>220</v>
@@ -5248,41 +5704,29 @@
         <v>436</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q69" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="R69" s="31" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="29" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>604</v>
-      </c>
-      <c r="F70" s="51" t="s">
+        <v>620</v>
+      </c>
+      <c r="F70" s="25" t="s">
         <v>859</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>435</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="J70" s="29" t="s">
         <v>220</v>
       </c>
       <c r="L70" s="31"/>
@@ -5299,461 +5743,462 @@
         <v>220</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>619</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>618</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>859</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="N71" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="O71" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="P71" s="31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="30" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="G72" s="30" t="s">
+      <c r="G71" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H71" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="I72" s="31" t="s">
+      <c r="I71" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="J72" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="N72" s="31" t="s">
+      <c r="J71" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="N71" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="O72" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="40" t="s">
+      <c r="O71" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="C72" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="D73" s="45" t="s">
+      <c r="D72" s="45" t="s">
         <v>588</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E72" s="48" t="s">
         <v>570</v>
       </c>
+      <c r="F72" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="N72" s="31"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="51" t="s">
-        <v>234</v>
-      </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="N73" s="31"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="51" t="s">
         <v>746</v>
       </c>
+      <c r="G73" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="M73" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="N73" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q73" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="R73" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>590</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>746</v>
+      </c>
       <c r="G74" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="M74" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="N74" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q74" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="R74" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="I74" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M74" s="31"/>
+      <c r="O74" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q74" s="31"/>
     </row>
     <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B75" s="29" t="s">
-        <v>366</v>
+      <c r="B75" s="40" t="s">
+        <v>424</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="F75" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="F75" s="25" t="s">
         <v>746</v>
       </c>
       <c r="G75" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J75" s="29" t="s">
         <v>220</v>
       </c>
       <c r="M75" s="31"/>
-      <c r="O75" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="P75" s="29" t="s">
-        <v>220</v>
-      </c>
       <c r="Q75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="40" t="s">
-        <v>424</v>
+      <c r="B76" s="29" t="s">
+        <v>352</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="F76" s="51" t="s">
+        <v>622</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>746</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>626</v>
-      </c>
-      <c r="J76" s="29" t="s">
         <v>220</v>
       </c>
       <c r="M76" s="31"/>
       <c r="Q76" s="31"/>
     </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>623</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>589</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>622</v>
-      </c>
-      <c r="F77" s="51" t="s">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R77" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="S77" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F78" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="G77" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="M77" s="31"/>
-      <c r="Q77" s="31"/>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="40"/>
-      <c r="F78" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>264</v>
-      </c>
       <c r="H78" s="29" t="s">
         <v>220</v>
       </c>
+      <c r="L78" s="22" t="s">
+        <v>629</v>
+      </c>
+      <c r="M78" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q78" s="22" t="s">
+        <v>628</v>
+      </c>
       <c r="R78" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="S78" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>639</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="F79" s="51" t="s">
-        <v>746</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>331</v>
       </c>
       <c r="H79" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L79" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="M79" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q79" s="22" t="s">
-        <v>628</v>
-      </c>
-      <c r="R79" s="31" t="s">
+      <c r="I79" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O79" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="P79" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="G80" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="H80" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I80" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="O80" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="P80" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="B80" s="48" t="s">
+        <v>825</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="G80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="O80" s="31"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B81" s="48" t="s">
-        <v>825</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49"/>
-      <c r="F81" s="51" t="s">
-        <v>822</v>
+        <v>437</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>746</v>
       </c>
       <c r="G81" s="31"/>
       <c r="I81" s="31"/>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B82" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49"/>
-      <c r="F82" s="51" t="s">
-        <v>746</v>
-      </c>
-      <c r="G82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="O82" s="31"/>
-    </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="40" t="s">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="40" t="s">
         <v>425</v>
       </c>
-      <c r="C83" s="27" t="s">
+      <c r="C82" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D82" s="45" t="s">
         <v>632</v>
       </c>
-      <c r="E83" s="40"/>
-      <c r="F83" s="51" t="str">
+      <c r="E82" s="40"/>
+      <c r="F82" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
       </c>
-      <c r="G83" s="31" t="s">
-        <v>220</v>
+      <c r="G82" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="J82" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O82" s="31"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>234</v>
       </c>
       <c r="I83" s="31" t="s">
-        <v>631</v>
+        <v>268</v>
       </c>
       <c r="J83" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="O83" s="31"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40"/>
+      <c r="N83" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O83" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>635</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>604</v>
+      </c>
       <c r="F84" s="30" t="s">
         <v>234</v>
       </c>
       <c r="G84" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H84" s="31" t="s">
-        <v>234</v>
-      </c>
+      <c r="H84" s="31"/>
       <c r="I84" s="31" t="s">
-        <v>268</v>
+        <v>634</v>
       </c>
       <c r="J84" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="N84" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="O84" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="D85" s="45" t="s">
-        <v>635</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>604</v>
-      </c>
+      <c r="N84" s="30"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="30" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="J85" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="N85" s="30"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="30" t="s">
+      <c r="H85" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>638</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>528</v>
+      </c>
+      <c r="F86" s="24" t="s">
         <v>222</v>
       </c>
+      <c r="G86" s="35" t="s">
+        <v>222</v>
+      </c>
       <c r="H86" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>638</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>528</v>
-      </c>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F88" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G88" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="H87" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G88" s="30" t="s">
-        <v>269</v>
-      </c>
       <c r="H88" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>640</v>
+      </c>
+      <c r="J88" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="40" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>525</v>
@@ -5767,25 +6212,19 @@
       <c r="H89" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="I89" s="22" t="s">
-        <v>640</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B90" s="40" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F90" s="37" t="s">
         <v>222</v>
@@ -5797,42 +6236,56 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>637</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="F91" s="37" t="s">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="40"/>
+      <c r="F91" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H91" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G92" s="30" t="s">
-        <v>222</v>
-      </c>
+      <c r="H91" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="I91" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K91" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="L91" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M91" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R91" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="S91" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
       <c r="H92" s="31" t="s">
         <v>332</v>
       </c>
@@ -5843,30 +6296,25 @@
         <v>333</v>
       </c>
       <c r="L92" s="31" t="s">
-        <v>272</v>
+        <v>652</v>
       </c>
       <c r="M92" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="R92" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="S92" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="29" t="s">
-        <v>381</v>
+      <c r="R92" s="31"/>
+    </row>
+    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="40" t="s">
+        <v>380</v>
       </c>
       <c r="C93" s="41" t="s">
-        <v>390</v>
+        <v>650</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>523</v>
+        <v>649</v>
       </c>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
@@ -5880,75 +6328,75 @@
         <v>333</v>
       </c>
       <c r="L93" s="31" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M93" s="29" t="s">
         <v>220</v>
       </c>
+      <c r="N93" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P93" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q93" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="R93" s="31"/>
     </row>
-    <row r="94" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="C94" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>648</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="I94" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="K94" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="L94" s="31" t="s">
-        <v>647</v>
-      </c>
-      <c r="M94" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="N94" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P94" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="Q94" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R94" s="31"/>
-    </row>
-    <row r="95" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+    <row r="94" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="C94" s="27" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D94" s="49" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E94" s="48" t="s">
         <v>527</v>
       </c>
-      <c r="F95" s="51" t="s">
+      <c r="F94" s="25" t="s">
         <v>720</v>
       </c>
     </row>
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C95" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="R95" s="31"/>
+    </row>
     <row r="96" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="C96" s="41" t="s">
-        <v>391</v>
+      <c r="B96" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>645</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E96" s="40" t="s">
         <v>527</v>
@@ -5966,93 +6414,106 @@
       <c r="L96" s="31"/>
       <c r="R96" s="31"/>
     </row>
-    <row r="97" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>644</v>
-      </c>
-      <c r="E97" s="40" t="s">
-        <v>527</v>
-      </c>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="H97" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="K97" s="31"/>
-      <c r="L97" s="31"/>
-      <c r="R97" s="31"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
+        <v>221</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I97" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J97" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L97" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="M97" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>668</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>663</v>
+      </c>
       <c r="E98" s="40"/>
-      <c r="F98" s="30" t="s">
-        <v>221</v>
+      <c r="F98" s="25" t="s">
+        <v>822</v>
       </c>
       <c r="G98" s="34" t="s">
         <v>220</v>
       </c>
       <c r="I98" s="31" t="s">
-        <v>274</v>
+        <v>669</v>
       </c>
       <c r="J98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L98" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="M98" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="L98" s="31"/>
     </row>
     <row r="99" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="C99" s="41"/>
+        <v>414</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>662</v>
+      </c>
       <c r="D99" s="45" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="E99" s="40"/>
-      <c r="F99" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="G99" s="34"/>
-      <c r="I99" s="31"/>
+      <c r="F99" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="J99" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="L99" s="31"/>
+      <c r="M99" s="29" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="40" t="s">
-        <v>416</v>
+      <c r="B100" s="29" t="s">
+        <v>413</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>663</v>
-      </c>
-      <c r="E100" s="40"/>
-      <c r="F100" s="51" t="s">
-        <v>822</v>
+        <v>658</v>
+      </c>
+      <c r="E100" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>412</v>
       </c>
       <c r="G100" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I100" s="31" t="s">
-        <v>669</v>
+      <c r="I100" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="J100" s="29" t="s">
         <v>220</v>
@@ -6061,90 +6522,94 @@
     </row>
     <row r="101" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B101" s="29" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="E101" s="40"/>
-      <c r="F101" s="30" t="s">
+      <c r="F101" s="24" t="s">
         <v>412</v>
       </c>
       <c r="G101" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="I101" s="22" t="s">
-        <v>657</v>
+      <c r="H101" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="I101" s="31" t="s">
+        <v>654</v>
       </c>
       <c r="J101" s="29" t="s">
         <v>220</v>
       </c>
       <c r="L101" s="31"/>
-      <c r="M101" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>658</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>659</v>
-      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="I102" s="22" t="s">
-        <v>657</v>
+        <v>222</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I102" s="31" t="s">
+        <v>276</v>
       </c>
       <c r="J102" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L102" s="31"/>
-    </row>
-    <row r="103" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>656</v>
+      <c r="P102" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q102" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C103" s="41" t="s">
+        <v>385</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>653</v>
-      </c>
-      <c r="E103" s="40"/>
-      <c r="F103" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="H103" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="I103" s="31" t="s">
-        <v>654</v>
-      </c>
-      <c r="J103" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L103" s="31"/>
+        <v>671</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I103" s="31"/>
+      <c r="P103" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q103" s="29" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="41"/>
@@ -6155,47 +6620,57 @@
       <c r="G104" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H104" s="29" t="s">
+      <c r="H104" s="31" t="s">
         <v>220</v>
       </c>
       <c r="I104" s="31" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J104" s="29" t="s">
         <v>220</v>
       </c>
+      <c r="M104" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="N104" s="29" t="s">
+        <v>220</v>
+      </c>
       <c r="P104" s="31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q104" s="29" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="40" t="s">
-        <v>384</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>385</v>
+    <row r="105" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>676</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>671</v>
-      </c>
-      <c r="E105" s="40" t="s">
-        <v>672</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="E105" s="40"/>
       <c r="F105" s="30" t="s">
         <v>222</v>
       </c>
       <c r="G105" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="H105" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I105" s="31"/>
+      <c r="H105" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M105" s="31"/>
       <c r="P105" s="31" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="Q105" s="29" t="s">
         <v>220</v>
@@ -6203,7 +6678,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="41"/>
@@ -6214,100 +6689,71 @@
       <c r="G106" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="H106" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="I106" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="J106" s="29" t="s">
+      <c r="H106" s="29" t="s">
         <v>220</v>
       </c>
       <c r="M106" s="31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N106" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="P106" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q106" s="29" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="107" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>676</v>
+      <c r="B107" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="41" t="s">
+        <v>387</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="E107" s="40"/>
+        <v>677</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>526</v>
+      </c>
       <c r="F107" s="30" t="s">
         <v>222</v>
       </c>
       <c r="G107" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="H107" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="I107" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="J107" s="29" t="s">
+      <c r="H107" s="29" t="s">
         <v>220</v>
       </c>
       <c r="M107" s="31"/>
-      <c r="P107" s="31" t="s">
-        <v>673</v>
+      <c r="P107" s="22" t="s">
+        <v>678</v>
       </c>
       <c r="Q107" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="G108" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="H108" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="M108" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="N108" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>387</v>
-      </c>
-      <c r="D109" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>526</v>
-      </c>
+      <c r="A108" s="48"/>
+      <c r="B108" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="D108" s="49"/>
+      <c r="E108" s="48" t="s">
+        <v>527</v>
+      </c>
+      <c r="F108" s="51" t="s">
+        <v>720</v>
+      </c>
+      <c r="G108" s="30"/>
+      <c r="M108" s="31"/>
+      <c r="P108" s="22"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="30" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="G109" s="30" t="s">
         <v>282</v>
@@ -6315,638 +6761,870 @@
       <c r="H109" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="M109" s="31"/>
-      <c r="P109" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q109" s="29" t="s">
+      <c r="I109" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J109" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K109" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O109" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="P109" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R109" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="S109" s="29" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
-      <c r="B110" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="D110" s="49"/>
-      <c r="E110" s="48" t="s">
-        <v>527</v>
-      </c>
-      <c r="F110" s="51" t="s">
-        <v>720</v>
-      </c>
-      <c r="G110" s="30"/>
-      <c r="M110" s="31"/>
-      <c r="P110" s="22"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="H111" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="I111" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="J111" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="K111" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="O111" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="P111" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R111" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="S111" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="49" t="s">
+      <c r="A110" s="49"/>
+      <c r="B110" s="49" t="s">
         <v>871</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="F112" s="51" t="str">
+      <c r="C110" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>994</v>
+      </c>
+      <c r="F110" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
       </c>
-      <c r="G112" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="J110" s="31"/>
+      <c r="O110" s="31"/>
+      <c r="R110" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="S110" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="F111" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J111" s="31"/>
+      <c r="O111" s="31"/>
+      <c r="P111" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q111" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R111" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="S111" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C112" s="41" t="s">
+        <v>512</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="H112" s="41" t="s">
+        <v>220</v>
+      </c>
       <c r="J112" s="31"/>
       <c r="O112" s="31"/>
-      <c r="R112" s="31"/>
-    </row>
-    <row r="113" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="40" t="s">
-        <v>419</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>520</v>
-      </c>
-      <c r="E113" s="40" t="s">
-        <v>522</v>
-      </c>
-      <c r="F113" s="51" t="str">
+      <c r="P112" s="29" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q112" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R112" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="S112" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="40"/>
+      <c r="F113" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="G113" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="I113" s="31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J113" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L113" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M113" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C114" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="G114" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="I114" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L114" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="M114" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="40"/>
+      <c r="G115" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="N115" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P115" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q115" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116" s="40"/>
+      <c r="F116" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="I116" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J116" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="48"/>
+      <c r="B117" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="E117" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="G117" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H117" s="48"/>
+      <c r="I117" s="48"/>
+    </row>
+    <row r="118" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="48"/>
+      <c r="B118" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>999</v>
+      </c>
+      <c r="D118" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="E118" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="F118" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G118" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+    </row>
+    <row r="119" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>505</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I119" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="J119" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="P119" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q119" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="54" t="s">
+        <v>895</v>
+      </c>
+      <c r="C120" s="62"/>
+      <c r="D120" s="63"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="66"/>
+      <c r="I120" s="67"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="41"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="40"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="39"/>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="48" t="s">
+        <v>695</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="D122" s="49" t="s">
+        <v>897</v>
+      </c>
+      <c r="E122" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="F122" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
+      </c>
+      <c r="G122" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D123" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="E123" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F123" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124" s="48"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="39"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>902</v>
+      </c>
+      <c r="D125" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="E125" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="G125" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125" s="48"/>
+      <c r="I125" s="48"/>
+    </row>
+    <row r="126" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="48"/>
+      <c r="B126" s="48" t="s">
+        <v>710</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>903</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F126" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G126" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H126" s="48"/>
+      <c r="I126" s="48"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="48"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="39"/>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="48" t="s">
+        <v>839</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>906</v>
+      </c>
+      <c r="E128" s="48" t="s">
+        <v>842</v>
+      </c>
+      <c r="F128" s="51" t="s">
+        <v>828</v>
+      </c>
+      <c r="G128" s="51" t="s">
+        <v>907</v>
+      </c>
+      <c r="H128" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I128" s="31"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="48" t="s">
+        <v>840</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="D129" s="29" t="s">
+        <v>910</v>
+      </c>
+      <c r="E129" s="48" t="s">
+        <v>841</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I129" s="31"/>
+      <c r="P129" s="29" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q129" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A130" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="39"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="48"/>
+      <c r="B131" s="48" t="s">
+        <v>700</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="D131" s="49" t="s">
+        <v>911</v>
+      </c>
+      <c r="E131" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F131" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G131" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="50"/>
+    </row>
+    <row r="133" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="48"/>
+      <c r="B133" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="D133" s="49" t="s">
+        <v>915</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>746</v>
+      </c>
+      <c r="H133" s="49" t="s">
+        <v>913</v>
+      </c>
+      <c r="I133" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="49" t="s">
+        <v>883</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>918</v>
+      </c>
+      <c r="D134" s="49" t="s">
+        <v>917</v>
+      </c>
+      <c r="F134" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
       </c>
-      <c r="G113" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="H113" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="J113" s="31"/>
-      <c r="O113" s="31"/>
-      <c r="P113" s="29" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q113" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R113" s="31"/>
-    </row>
-    <row r="114" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>512</v>
-      </c>
-      <c r="D114" s="45" t="s">
-        <v>513</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="F114" s="51" t="s">
-        <v>746</v>
-      </c>
-      <c r="G114" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="H114" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="J114" s="31"/>
-      <c r="O114" s="31"/>
-      <c r="P114" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q114" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="R114" s="31" t="s">
-        <v>516</v>
-      </c>
-      <c r="S114" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E115" s="40"/>
-      <c r="F115" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G115" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="I115" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="J115" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L115" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="M115" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B116" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>510</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="E116" s="40" t="s">
-        <v>509</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="G116" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="H116" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="I116" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="L116" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="M116" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117" s="40"/>
-      <c r="G117" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="H117" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="L117" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="M117" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="N117" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P117" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q117" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="E118" s="40"/>
-      <c r="F118" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="G118" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="I118" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="J118" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
-      <c r="B119" s="48" t="s">
-        <v>692</v>
-      </c>
-      <c r="E119" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F119" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="G119" s="48"/>
-      <c r="H119" s="48"/>
-      <c r="I119" s="48"/>
-    </row>
-    <row r="120" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
-      <c r="B120" s="48" t="s">
-        <v>690</v>
-      </c>
-      <c r="E120" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F120" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="G120" s="48"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-    </row>
-    <row r="121" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="D121" s="45" t="s">
-        <v>505</v>
-      </c>
-      <c r="E121" s="40" t="s">
-        <v>506</v>
-      </c>
-      <c r="F121" s="57" t="s">
-        <v>894</v>
-      </c>
-      <c r="G121" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="I121" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="J121" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="P121" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q121" s="29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="54" t="s">
-        <v>895</v>
-      </c>
-      <c r="C122" s="62"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="65"/>
-      <c r="G122" s="66"/>
-      <c r="I122" s="67"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="40"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="39"/>
-      <c r="I123" s="31"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B124" s="48" t="s">
-        <v>695</v>
-      </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F124" s="51" t="str">
+      <c r="G134" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I134" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="J134" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="51"/>
+    </row>
+    <row r="136" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="48"/>
+      <c r="B136" s="48" t="s">
+        <v>759</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>919</v>
+      </c>
+      <c r="D136" s="49" t="s">
+        <v>920</v>
+      </c>
+      <c r="E136" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G136" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A137" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="48"/>
+      <c r="E137" s="48"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="39"/>
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="49" t="s">
+        <v>869</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="D138" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="F138" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
+      </c>
+      <c r="G138" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I138" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="J138" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L138" s="49" t="s">
+        <v>922</v>
+      </c>
+      <c r="M138" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="P138" s="49" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q138" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="52"/>
+      <c r="B139" s="48" t="s">
+        <v>824</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>927</v>
+      </c>
+      <c r="D139" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="F139" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="G139" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="F140" s="51"/>
+    </row>
+    <row r="141" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="48"/>
+      <c r="B141" s="48" t="s">
+        <v>778</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>929</v>
+      </c>
+      <c r="D141" s="69" t="s">
+        <v>928</v>
+      </c>
+      <c r="E141" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G141" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="48"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="48"/>
+    </row>
+    <row r="143" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="B143" s="48" t="s">
+        <v>696</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D143" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="E143" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F143" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
       </c>
-      <c r="G124" s="39"/>
-      <c r="I124" s="31"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B125" s="48" t="s">
-        <v>696</v>
-      </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F125" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="G125" s="39"/>
-      <c r="I125" s="31"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="49" t="s">
-        <v>711</v>
-      </c>
-      <c r="B126" s="48"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="39"/>
-      <c r="I126" s="31"/>
-    </row>
-    <row r="127" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="48" t="s">
-        <v>709</v>
-      </c>
-      <c r="E127" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F127" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="G127" s="48"/>
-      <c r="H127" s="48"/>
-      <c r="I127" s="48"/>
-    </row>
-    <row r="128" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="48" t="s">
-        <v>710</v>
-      </c>
-      <c r="E128" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F128" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="G128" s="48"/>
-      <c r="H128" s="48"/>
-      <c r="I128" s="48"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B129" s="48"/>
-      <c r="D129" s="49"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="39"/>
-      <c r="I129" s="31"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="48" t="s">
-        <v>839</v>
-      </c>
-      <c r="E130" s="48" t="s">
-        <v>842</v>
-      </c>
-      <c r="F130" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="G130" s="39"/>
-      <c r="I130" s="31"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="48" t="s">
-        <v>840</v>
-      </c>
-      <c r="E131" s="48" t="s">
-        <v>841</v>
-      </c>
-      <c r="F131" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="G131" s="39"/>
-      <c r="I131" s="31"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B132" s="48"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="39"/>
-      <c r="I132" s="31"/>
-    </row>
-    <row r="133" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
-      <c r="B133" s="48" t="s">
-        <v>700</v>
-      </c>
-      <c r="E133" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F133" s="50" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" s="48"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="50"/>
-    </row>
-    <row r="135" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
-      <c r="B135" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="F135" s="51" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="49" t="s">
-        <v>532</v>
-      </c>
-      <c r="F136" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="49" t="s">
-        <v>872</v>
-      </c>
-      <c r="F137" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="C138" s="48"/>
-      <c r="F138" s="51" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="49" t="s">
-        <v>883</v>
-      </c>
-      <c r="F139" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F140" s="51"/>
-    </row>
-    <row r="141" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
-      <c r="B141" s="48" t="s">
-        <v>759</v>
-      </c>
-      <c r="E141" s="48" t="s">
+      <c r="G143" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I143" s="48"/>
+      <c r="J143" s="48"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="48"/>
+      <c r="O143" s="48"/>
+      <c r="P143" s="48"/>
+      <c r="Q143" s="48"/>
+    </row>
+    <row r="144" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="48"/>
+      <c r="C144" s="48"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="48"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="52"/>
+      <c r="L144" s="48"/>
+      <c r="M144" s="48"/>
+      <c r="N144" s="48"/>
+      <c r="O144" s="48"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="48"/>
+    </row>
+    <row r="145" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="48"/>
+      <c r="B145" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="D145" s="48" t="s">
+        <v>930</v>
+      </c>
+      <c r="E145" s="48" t="s">
         <v>538</v>
       </c>
-      <c r="F141" s="51" t="s">
+      <c r="F145" s="25" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B142" s="48"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="39"/>
-      <c r="I142" s="31"/>
-    </row>
-    <row r="143" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="49" t="s">
-        <v>869</v>
-      </c>
-      <c r="F143" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="52"/>
-      <c r="B144" s="48" t="s">
-        <v>824</v>
-      </c>
-      <c r="C144" s="48"/>
-      <c r="F144" s="51" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B145" s="48"/>
-      <c r="C145" s="48"/>
-      <c r="F145" s="51"/>
-    </row>
-    <row r="146" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I145" s="48"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="52"/>
+      <c r="L145" s="48"/>
+      <c r="M145" s="48"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="48"/>
+      <c r="P145" s="48"/>
+      <c r="Q145" s="48"/>
+    </row>
+    <row r="146" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="48"/>
       <c r="B146" s="48" t="s">
-        <v>778</v>
-      </c>
-      <c r="C146" s="48"/>
-      <c r="D146" s="48"/>
+        <v>776</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>932</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>933</v>
+      </c>
       <c r="E146" s="48" t="s">
-        <v>603</v>
+        <v>538</v>
       </c>
       <c r="F146" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="G146" s="48"/>
-    </row>
-    <row r="147" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B147" s="48"/>
-      <c r="C147" s="48"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="51"/>
-      <c r="G147" s="48"/>
-    </row>
-    <row r="148" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="B147" s="48" t="s">
+        <v>768</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="D147" s="48" t="s">
+        <v>934</v>
+      </c>
+      <c r="E147" s="48" t="s">
+        <v>570</v>
+      </c>
+      <c r="F147" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="G147" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="48"/>
       <c r="B148" s="48" t="s">
-        <v>696</v>
-      </c>
-      <c r="C148" s="48"/>
-      <c r="D148" s="48"/>
+        <v>775</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>937</v>
+      </c>
+      <c r="D148" s="48" t="s">
+        <v>936</v>
+      </c>
       <c r="E148" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F148" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
-      </c>
-      <c r="G148" s="48"/>
-      <c r="I148" s="48"/>
-      <c r="J148" s="48"/>
-      <c r="K148" s="52"/>
-      <c r="L148" s="48"/>
-      <c r="M148" s="48"/>
-      <c r="N148" s="48"/>
-      <c r="O148" s="48"/>
-      <c r="P148" s="48"/>
-      <c r="Q148" s="48"/>
-    </row>
-    <row r="149" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="48"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="48"/>
+        <v>538</v>
+      </c>
+      <c r="F148" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="G148" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="B149" s="48" t="s">
+        <v>767</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="D149" s="48" t="s">
+        <v>938</v>
+      </c>
+      <c r="E149" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="F149" s="51" t="s">
+        <v>748</v>
+      </c>
+      <c r="G149" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="I149" s="48"/>
       <c r="J149" s="48"/>
       <c r="K149" s="52"/>
@@ -6957,127 +7635,148 @@
       <c r="P149" s="48"/>
       <c r="Q149" s="48"/>
     </row>
-    <row r="150" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="48"/>
       <c r="B150" s="48" t="s">
-        <v>771</v>
-      </c>
-      <c r="C150" s="48"/>
-      <c r="D150" s="48"/>
+        <v>769</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="D150" s="48" t="s">
+        <v>940</v>
+      </c>
       <c r="E150" s="48" t="s">
         <v>538</v>
       </c>
       <c r="F150" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="G150" s="48"/>
-      <c r="I150" s="48"/>
-      <c r="J150" s="48"/>
-      <c r="K150" s="52"/>
-      <c r="L150" s="48"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
-      <c r="O150" s="48"/>
-      <c r="P150" s="48"/>
-      <c r="Q150" s="48"/>
-    </row>
-    <row r="151" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="48"/>
       <c r="B151" s="48" t="s">
-        <v>776</v>
-      </c>
-      <c r="C151" s="48"/>
-      <c r="D151" s="48"/>
+        <v>770</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="D151" s="48" t="s">
+        <v>942</v>
+      </c>
       <c r="E151" s="48" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="F151" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="G151" s="48"/>
+      <c r="G151" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I151" s="48"/>
+      <c r="J151" s="48"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="48"/>
+      <c r="M151" s="48"/>
+      <c r="N151" s="48"/>
+      <c r="O151" s="48"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="48"/>
     </row>
     <row r="152" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="48" t="s">
-        <v>768</v>
-      </c>
+      <c r="A152" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B152" s="48"/>
       <c r="C152" s="48"/>
       <c r="D152" s="48"/>
-      <c r="E152" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="F152" s="51" t="s">
-        <v>748</v>
-      </c>
+      <c r="E152" s="48"/>
+      <c r="F152" s="51"/>
       <c r="G152" s="48"/>
+      <c r="I152" s="48"/>
+      <c r="J152" s="48"/>
+      <c r="K152" s="52"/>
+      <c r="L152" s="48"/>
+      <c r="M152" s="48"/>
+      <c r="N152" s="48"/>
+      <c r="O152" s="48"/>
+      <c r="P152" s="48"/>
+      <c r="Q152" s="48"/>
     </row>
     <row r="153" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="48"/>
       <c r="B153" s="48" t="s">
-        <v>775</v>
-      </c>
-      <c r="C153" s="48"/>
-      <c r="D153" s="48"/>
+        <v>698</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>944</v>
+      </c>
+      <c r="D153" s="48" t="s">
+        <v>945</v>
+      </c>
       <c r="E153" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="F153" s="51" t="s">
-        <v>748</v>
-      </c>
-      <c r="G153" s="55"/>
+        <v>523</v>
+      </c>
+      <c r="F153" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
+      </c>
+      <c r="G153" s="49" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="154" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="48" t="s">
-        <v>767</v>
-      </c>
+      <c r="A154" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154" s="48"/>
       <c r="C154" s="48"/>
       <c r="D154" s="48"/>
-      <c r="E154" s="48" t="s">
-        <v>603</v>
-      </c>
-      <c r="F154" s="51" t="s">
-        <v>748</v>
-      </c>
-      <c r="G154" s="48"/>
-      <c r="I154" s="48"/>
-      <c r="J154" s="48"/>
-      <c r="K154" s="52"/>
-      <c r="L154" s="48"/>
-      <c r="M154" s="48"/>
-      <c r="N154" s="48"/>
-      <c r="O154" s="48"/>
-      <c r="P154" s="48"/>
-      <c r="Q154" s="48"/>
-    </row>
-    <row r="155" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E154" s="48"/>
+      <c r="F154" s="51"/>
+    </row>
+    <row r="155" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="48"/>
       <c r="B155" s="48" t="s">
-        <v>769</v>
-      </c>
-      <c r="C155" s="48"/>
-      <c r="D155" s="48"/>
+        <v>699</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="D155" s="48" t="s">
+        <v>946</v>
+      </c>
       <c r="E155" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="F155" s="51" t="s">
-        <v>748</v>
-      </c>
-      <c r="G155" s="48"/>
-    </row>
-    <row r="156" spans="1:17" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
-      <c r="B156" s="48" t="s">
-        <v>770</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="F155" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G155" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="I155" s="48"/>
+      <c r="J155" s="48"/>
+      <c r="K155" s="52"/>
+      <c r="L155" s="48"/>
+      <c r="M155" s="48"/>
+      <c r="N155" s="48"/>
+      <c r="O155" s="48"/>
+      <c r="P155" s="48"/>
+      <c r="Q155" s="48"/>
+    </row>
+    <row r="156" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B156" s="48"/>
       <c r="C156" s="48"/>
       <c r="D156" s="48"/>
-      <c r="E156" s="48" t="s">
-        <v>604</v>
-      </c>
-      <c r="F156" s="51" t="s">
-        <v>748</v>
-      </c>
+      <c r="E156" s="48"/>
+      <c r="F156" s="50"/>
       <c r="G156" s="48"/>
       <c r="I156" s="48"/>
       <c r="J156" s="48"/>
@@ -7089,16 +7788,27 @@
       <c r="P156" s="48"/>
       <c r="Q156" s="48"/>
     </row>
-    <row r="157" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="B157" s="48"/>
-      <c r="C157" s="48"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="51"/>
-      <c r="G157" s="48"/>
+    <row r="157" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="48"/>
+      <c r="B157" s="48" t="s">
+        <v>714</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>948</v>
+      </c>
+      <c r="D157" s="48" t="s">
+        <v>949</v>
+      </c>
+      <c r="E157" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="F157" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
+      </c>
+      <c r="G157" s="48" t="s">
+        <v>220</v>
+      </c>
       <c r="I157" s="48"/>
       <c r="J157" s="48"/>
       <c r="K157" s="52"/>
@@ -7110,573 +7820,661 @@
       <c r="Q157" s="48"/>
     </row>
     <row r="158" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="48" t="s">
-        <v>698</v>
-      </c>
-      <c r="C158" s="48"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="48" t="s">
+      <c r="A158" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="51"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="48"/>
+      <c r="I158" s="48"/>
+      <c r="J158" s="48"/>
+    </row>
+    <row r="159" spans="1:17" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="48"/>
+      <c r="B159" s="48" t="s">
+        <v>760</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>950</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G159" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H159" s="48"/>
+      <c r="I159" s="48"/>
+      <c r="J159" s="48"/>
+    </row>
+    <row r="160" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="48"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="51"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
+      <c r="I160" s="48"/>
+      <c r="J160" s="48"/>
+    </row>
+    <row r="161" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="48"/>
+      <c r="B161" s="48" t="s">
+        <v>697</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="D161" s="48" t="s">
+        <v>952</v>
+      </c>
+      <c r="E161" s="48" t="s">
+        <v>524</v>
+      </c>
+      <c r="F161" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G161" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H161" s="48"/>
+      <c r="I161" s="48"/>
+      <c r="J161" s="48"/>
+    </row>
+    <row r="162" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162" s="48"/>
+      <c r="C162" s="48"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="51"/>
+      <c r="G162" s="48"/>
+    </row>
+    <row r="163" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="48"/>
+      <c r="B163" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="D163" s="48" t="s">
+        <v>955</v>
+      </c>
+      <c r="E163" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="G163" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q163" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="R163" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" s="48"/>
+      <c r="C164" s="48"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="48"/>
+      <c r="F164" s="51"/>
+      <c r="G164" s="48"/>
+    </row>
+    <row r="165" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="48"/>
+      <c r="B165" s="48" t="s">
+        <v>695</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="D165" s="48" t="s">
+        <v>897</v>
+      </c>
+      <c r="E165" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="F158" s="51" t="str">
+      <c r="F165" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="G165" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" s="48"/>
+      <c r="C166" s="48"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="48"/>
+    </row>
+    <row r="167" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="D167" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="F167" s="51" t="str">
+        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
+        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
+      </c>
+      <c r="G167" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="H167" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="I167" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="J167" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="48"/>
+    </row>
+    <row r="169" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="48"/>
+      <c r="B169" s="48" t="s">
+        <v>701</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="D169" s="48" t="s">
+        <v>961</v>
+      </c>
+      <c r="E169" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="F169" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B159" s="48"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="51"/>
-    </row>
-    <row r="160" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="48" t="s">
-        <v>699</v>
-      </c>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F160" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="G160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="52"/>
-      <c r="L160" s="48"/>
-      <c r="M160" s="48"/>
-      <c r="N160" s="48"/>
-      <c r="O160" s="48"/>
-      <c r="P160" s="48"/>
-      <c r="Q160" s="48"/>
-    </row>
-    <row r="161" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="50"/>
-      <c r="G161" s="48"/>
-      <c r="I161" s="48"/>
-      <c r="J161" s="48"/>
-      <c r="K161" s="52"/>
-      <c r="L161" s="48"/>
-      <c r="M161" s="48"/>
-      <c r="N161" s="48"/>
-      <c r="O161" s="48"/>
-      <c r="P161" s="48"/>
-      <c r="Q161" s="48"/>
-    </row>
-    <row r="162" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="48" t="s">
-        <v>714</v>
-      </c>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48"/>
-      <c r="E162" s="48" t="s">
+      <c r="G169" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170" s="48" t="s">
+        <v>702</v>
+      </c>
+      <c r="C170" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="D170" s="48" t="s">
+        <v>963</v>
+      </c>
+      <c r="E170" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="F162" s="51" t="str">
+      <c r="F170" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="G170" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="F171" s="51"/>
+      <c r="G171" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="48"/>
+      <c r="B172" s="48" t="s">
+        <v>713</v>
+      </c>
+      <c r="C172" s="48" t="s">
+        <v>966</v>
+      </c>
+      <c r="D172" s="48" t="s">
+        <v>965</v>
+      </c>
+      <c r="E172" s="48" t="s">
+        <v>526</v>
+      </c>
+      <c r="F172" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
       </c>
-      <c r="G162" s="48"/>
-      <c r="I162" s="48"/>
-      <c r="J162" s="48"/>
-      <c r="K162" s="52"/>
-      <c r="L162" s="48"/>
-      <c r="M162" s="48"/>
-      <c r="N162" s="48"/>
-      <c r="O162" s="48"/>
-      <c r="P162" s="48"/>
-      <c r="Q162" s="48"/>
-    </row>
-    <row r="163" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="F163" s="51"/>
-      <c r="G163" s="48"/>
-      <c r="H163" s="48"/>
-      <c r="I163" s="48"/>
-      <c r="J163" s="48"/>
-    </row>
-    <row r="164" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48" t="s">
-        <v>760</v>
-      </c>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="F164" s="51" t="s">
-        <v>748</v>
-      </c>
-      <c r="G164" s="48"/>
-      <c r="H164" s="48"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="48"/>
-    </row>
-    <row r="165" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="51"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="48"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="48"/>
-    </row>
-    <row r="166" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48" t="s">
-        <v>697</v>
-      </c>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F166" s="50" t="s">
-        <v>720</v>
-      </c>
-      <c r="G166" s="48"/>
-      <c r="H166" s="48"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="48"/>
-    </row>
-    <row r="167" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="51"/>
-      <c r="G167" s="48"/>
-    </row>
-    <row r="168" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
-      <c r="B168" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="51" t="s">
-        <v>746</v>
-      </c>
-      <c r="G168" s="48"/>
-    </row>
-    <row r="169" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="51"/>
-      <c r="G169" s="48"/>
-    </row>
-    <row r="170" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
-      <c r="B170" s="48" t="s">
-        <v>695</v>
-      </c>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F170" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="G170" s="48"/>
-    </row>
-    <row r="171" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="51"/>
-      <c r="G171" s="48"/>
-    </row>
-    <row r="172" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="49" t="s">
-        <v>531</v>
-      </c>
-      <c r="F172" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26063326"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26063326</v>
-      </c>
-      <c r="G172" s="48"/>
-    </row>
-    <row r="173" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="48" t="s">
-        <v>119</v>
+      <c r="G172" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="B173" s="48"/>
       <c r="C173" s="48"/>
       <c r="D173" s="48"/>
       <c r="E173" s="48"/>
       <c r="F173" s="51"/>
-      <c r="G173" s="48"/>
-    </row>
-    <row r="174" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="48"/>
-      <c r="B174" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
+      <c r="B174" s="59" t="s">
+        <v>733</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="D174" s="59" t="s">
+        <v>967</v>
+      </c>
       <c r="E174" s="48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F174" s="51" t="str">
         <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
         <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
       </c>
-      <c r="G174" s="48"/>
-    </row>
-    <row r="175" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="48"/>
       <c r="B175" s="48" t="s">
-        <v>702</v>
-      </c>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
+        <v>703</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="D175" s="48" t="s">
+        <v>969</v>
+      </c>
       <c r="E175" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="F175" s="51" t="s">
-        <v>724</v>
-      </c>
-      <c r="G175" s="48"/>
-    </row>
-    <row r="176" spans="1:17" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="48" t="s">
-        <v>122</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="F175" s="70" t="s">
+        <v>720</v>
+      </c>
+      <c r="G175" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="48"/>
+      <c r="B176" s="48"/>
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
       <c r="F176" s="51"/>
-    </row>
-    <row r="177" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="48" t="s">
-        <v>713</v>
-      </c>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="F177" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="51"/>
-    </row>
-    <row r="179" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="59" t="s">
-        <v>733</v>
-      </c>
-      <c r="C179" s="59"/>
-      <c r="D179" s="59"/>
-      <c r="E179" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F179" s="51" t="str">
-        <f>"https://www.ncbi.nlm.nih.gov/pubmed/26859813"</f>
-        <v>https://www.ncbi.nlm.nih.gov/pubmed/26859813</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
-      <c r="B180" s="48" t="s">
-        <v>703</v>
-      </c>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48" t="s">
-        <v>524</v>
-      </c>
-      <c r="F180" s="50" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="48"/>
-      <c r="C181" s="48"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="51"/>
-      <c r="G181" s="48"/>
-      <c r="I181" s="48"/>
-      <c r="J181" s="48"/>
-      <c r="K181" s="52"/>
-      <c r="L181" s="48"/>
-      <c r="M181" s="48"/>
-      <c r="N181" s="48"/>
-      <c r="O181" s="48"/>
-      <c r="P181" s="48"/>
-      <c r="Q181" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="I176" s="48"/>
+      <c r="J176" s="48"/>
+      <c r="K176" s="52"/>
+      <c r="L176" s="48"/>
+      <c r="M176" s="48"/>
+      <c r="N176" s="48"/>
+      <c r="O176" s="48"/>
+      <c r="P176" s="48"/>
+      <c r="Q176" s="48"/>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C177" s="41"/>
+      <c r="D177" s="41"/>
+      <c r="E177" s="41"/>
+      <c r="G177" s="29">
+        <v>17</v>
+      </c>
+      <c r="H177" s="29">
+        <v>5</v>
+      </c>
+      <c r="I177" s="29">
+        <v>11</v>
+      </c>
+      <c r="J177" s="29">
+        <v>2</v>
+      </c>
+      <c r="K177" s="29">
+        <v>2</v>
+      </c>
+      <c r="L177" s="29">
+        <v>7</v>
+      </c>
+      <c r="M177" s="29">
+        <v>10</v>
+      </c>
+      <c r="N177" s="29">
+        <v>3</v>
+      </c>
+      <c r="O177" s="29">
+        <v>5</v>
+      </c>
+      <c r="P177" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q177" s="29">
+        <v>1</v>
+      </c>
+      <c r="R177" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G178" s="39"/>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="H179" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I179" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J179" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="K179" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="L179" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="M179" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="N179" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="O179" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="P179" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q179" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="R179" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="S179" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F180" s="33"/>
+      <c r="G180" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H180" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="I180" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="J180" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K180" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L180" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M180" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="N180" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O180" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="P180" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q180" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="R180" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F181" s="33"/>
+      <c r="G181" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="H181" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="I181" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J181" s="33"/>
+      <c r="K181" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="L181" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="M181" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="N181" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="O181" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="P181" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q181" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="R181" s="33" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="C182" s="41"/>
-      <c r="D182" s="41"/>
-      <c r="E182" s="41"/>
-      <c r="G182" s="29">
-        <v>17</v>
-      </c>
-      <c r="H182" s="29">
-        <v>5</v>
-      </c>
-      <c r="I182" s="29">
-        <v>11</v>
-      </c>
-      <c r="J182" s="29">
-        <v>2</v>
-      </c>
-      <c r="K182" s="29">
-        <v>2</v>
-      </c>
-      <c r="L182" s="29">
-        <v>7</v>
-      </c>
-      <c r="M182" s="29">
-        <v>10</v>
-      </c>
-      <c r="N182" s="29">
-        <v>3</v>
-      </c>
-      <c r="O182" s="29">
-        <v>5</v>
-      </c>
-      <c r="P182" s="29">
-        <v>5</v>
-      </c>
-      <c r="Q182" s="29">
-        <v>1</v>
-      </c>
-      <c r="R182" s="29">
-        <v>3</v>
-      </c>
+      <c r="F182" s="33"/>
+      <c r="G182" s="35" t="s">
+        <v>322</v>
+      </c>
+      <c r="H182" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="I182" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="J182" s="33"/>
+      <c r="K182" s="33"/>
+      <c r="L182" s="33"/>
+      <c r="M182" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="N182" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O182" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="P182" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q182" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="R182" s="33"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G183" s="39"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H183" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="I183" s="33"/>
+      <c r="J183" s="33"/>
+      <c r="K183" s="33"/>
+      <c r="L183" s="33"/>
+      <c r="M183" s="33"/>
+      <c r="N183" s="33"/>
+      <c r="O183" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="P183" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q183" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="R183" s="33"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="G184" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="H184" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="I184" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="J184" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="K184" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="L184" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="M184" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="N184" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="O184" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="P184" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q184" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="R184" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="S184" s="29" t="s">
-        <v>220</v>
-      </c>
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="33"/>
+      <c r="I184" s="33"/>
+      <c r="J184" s="33"/>
+      <c r="K184" s="33"/>
+      <c r="L184" s="33"/>
+      <c r="M184" s="33"/>
+      <c r="N184" s="33"/>
+      <c r="O184" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="P184" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q184" s="33"/>
+      <c r="R184" s="33"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="29" t="s">
+        <v>325</v>
+      </c>
       <c r="F185" s="33"/>
-      <c r="G185" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="H185" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="I185" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="J185" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K185" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="L185" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="M185" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="N185" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="O185" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="P185" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q185" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="R185" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="G185" s="33"/>
+      <c r="H185" s="33"/>
+      <c r="I185" s="33"/>
+      <c r="J185" s="33"/>
+      <c r="K185" s="33"/>
+      <c r="L185" s="33"/>
+      <c r="M185" s="33"/>
+      <c r="N185" s="33"/>
+      <c r="O185" s="33"/>
+      <c r="P185" s="33"/>
+      <c r="Q185" s="33"/>
+      <c r="R185" s="33"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="29" t="s">
+        <v>326</v>
+      </c>
       <c r="F186" s="33"/>
-      <c r="G186" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="H186" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="I186" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+      <c r="I186" s="33"/>
       <c r="J186" s="33"/>
-      <c r="K186" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="L186" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="M186" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="N186" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="O186" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="P186" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q186" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="R186" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="K186" s="33"/>
+      <c r="L186" s="33"/>
+      <c r="M186" s="33"/>
+      <c r="N186" s="33"/>
+      <c r="O186" s="33"/>
+      <c r="P186" s="33"/>
+      <c r="Q186" s="33"/>
+      <c r="R186" s="33"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="29" t="s">
+        <v>327</v>
+      </c>
       <c r="F187" s="33"/>
-      <c r="G187" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="H187" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="I187" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="G187" s="33"/>
+      <c r="H187" s="33"/>
+      <c r="I187" s="33"/>
       <c r="J187" s="33"/>
       <c r="K187" s="33"/>
       <c r="L187" s="33"/>
-      <c r="M187" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="N187" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="O187" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="P187" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q187" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="M187" s="33"/>
+      <c r="N187" s="33"/>
+      <c r="O187" s="33"/>
+      <c r="P187" s="33"/>
+      <c r="Q187" s="33"/>
       <c r="R187" s="33"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="29" t="s">
+        <v>328</v>
+      </c>
       <c r="F188" s="33"/>
-      <c r="G188" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="H188" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="G188" s="33"/>
+      <c r="H188" s="33"/>
       <c r="I188" s="33"/>
       <c r="J188" s="33"/>
       <c r="K188" s="33"/>
       <c r="L188" s="33"/>
       <c r="M188" s="33"/>
       <c r="N188" s="33"/>
-      <c r="O188" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="P188" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q188" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="O188" s="33"/>
+      <c r="P188" s="33"/>
+      <c r="Q188" s="33"/>
       <c r="R188" s="33"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="29" t="s">
+        <v>329</v>
+      </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
@@ -7686,19 +8484,12 @@
       <c r="L189" s="33"/>
       <c r="M189" s="33"/>
       <c r="N189" s="33"/>
-      <c r="O189" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="P189" s="33" t="s">
-        <v>220</v>
-      </c>
+      <c r="O189" s="33"/>
+      <c r="P189" s="33"/>
       <c r="Q189" s="33"/>
       <c r="R189" s="33"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="29" t="s">
-        <v>325</v>
-      </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
       <c r="H190" s="33"/>
@@ -7715,310 +8506,243 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="33"/>
-      <c r="K191" s="33"/>
-      <c r="L191" s="33"/>
-      <c r="M191" s="33"/>
-      <c r="N191" s="33"/>
-      <c r="O191" s="33"/>
-      <c r="P191" s="33"/>
-      <c r="Q191" s="33"/>
-      <c r="R191" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="F191" s="30" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="33"/>
-      <c r="K192" s="33"/>
-      <c r="L192" s="33"/>
-      <c r="M192" s="33"/>
-      <c r="N192" s="33"/>
-      <c r="O192" s="33"/>
-      <c r="P192" s="33"/>
-      <c r="Q192" s="33"/>
-      <c r="R192" s="33"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A193" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="33"/>
-      <c r="K193" s="33"/>
-      <c r="L193" s="33"/>
-      <c r="M193" s="33"/>
-      <c r="N193" s="33"/>
-      <c r="O193" s="33"/>
-      <c r="P193" s="33"/>
-      <c r="Q193" s="33"/>
-      <c r="R193" s="33"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F192" s="30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="33"/>
-      <c r="K194" s="33"/>
-      <c r="L194" s="33"/>
-      <c r="M194" s="33"/>
-      <c r="N194" s="33"/>
-      <c r="O194" s="33"/>
-      <c r="P194" s="33"/>
-      <c r="Q194" s="33"/>
-      <c r="R194" s="33"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="33"/>
-      <c r="K195" s="33"/>
-      <c r="L195" s="33"/>
-      <c r="M195" s="33"/>
-      <c r="N195" s="33"/>
-      <c r="O195" s="33"/>
-      <c r="P195" s="33"/>
-      <c r="Q195" s="33"/>
-      <c r="R195" s="33"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A196" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F196" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="F194" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F195" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="29"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="F197" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F198" s="33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F197" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F198" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="29" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="F199" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="29" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F200" s="30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F201" s="29"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F201" s="30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F202" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F202" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="29" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F203" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="29" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="F204" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A205" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F205" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="29"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F206" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="29" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F207" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A208" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F208" s="30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F209" s="30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F210" s="29"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F211" s="30" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F212" s="30" t="s">
-        <v>330</v>
-      </c>
+      <c r="A212" s="43" t="s">
+        <v>425</v>
+      </c>
+      <c r="B212" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="C212" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="F212" s="29"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="43"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="43"/>
+      <c r="F213" s="29"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="44"/>
+      <c r="C214" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F214" s="29"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="B215" s="44"/>
+      <c r="C215" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F215" s="29"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216" s="44"/>
+      <c r="C216" s="43" t="s">
+        <v>530</v>
+      </c>
+      <c r="F216" s="29"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="43" t="s">
-        <v>425</v>
-      </c>
-      <c r="B217" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="C217" s="43" t="s">
-        <v>535</v>
-      </c>
+      <c r="A217" s="43"/>
+      <c r="B217" s="43"/>
+      <c r="C217" s="43"/>
       <c r="F217" s="29"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="43"/>
-      <c r="B218" s="43"/>
-      <c r="C218" s="43"/>
+      <c r="A218" s="43" t="s">
+        <v>529</v>
+      </c>
+      <c r="B218" s="44"/>
+      <c r="C218" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="F218" s="29"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="43" t="s">
-        <v>424</v>
+        <v>531</v>
       </c>
       <c r="B219" s="44"/>
       <c r="C219" s="43" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="F219" s="29"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="B220" s="44"/>
+        <v>536</v>
+      </c>
+      <c r="B220" s="43" t="s">
+        <v>537</v>
+      </c>
       <c r="C220" s="43" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="F220" s="29"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="43" t="s">
-        <v>423</v>
-      </c>
-      <c r="B221" s="44"/>
+        <v>532</v>
+      </c>
+      <c r="B221" s="43" t="s">
+        <v>533</v>
+      </c>
       <c r="C221" s="43" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F221" s="29"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="43"/>
-      <c r="B222" s="43"/>
-      <c r="C222" s="43"/>
+      <c r="B222" s="34"/>
       <c r="F222" s="29"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="B223" s="44"/>
-      <c r="C223" s="43" t="s">
-        <v>111</v>
-      </c>
+      <c r="B223" s="34"/>
       <c r="F223" s="29"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="43" t="s">
-        <v>531</v>
-      </c>
-      <c r="B224" s="44"/>
-      <c r="C224" s="43" t="s">
-        <v>116</v>
-      </c>
+      <c r="B224" s="34"/>
       <c r="F224" s="29"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="43" t="s">
-        <v>536</v>
-      </c>
-      <c r="B225" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="C225" s="43" t="s">
-        <v>44</v>
-      </c>
+      <c r="B225" s="34"/>
       <c r="F225" s="29"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="B226" s="43" t="s">
-        <v>533</v>
-      </c>
-      <c r="C226" s="43" t="s">
-        <v>534</v>
-      </c>
+      <c r="B226" s="34"/>
       <c r="F226" s="29"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -8029,7 +8753,8 @@
       <c r="B228" s="34"/>
       <c r="F228" s="29"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="28"/>
       <c r="B229" s="34"/>
       <c r="F229" s="29"/>
     </row>
@@ -8049,225 +8774,204 @@
       <c r="B233" s="34"/>
       <c r="F233" s="29"/>
     </row>
-    <row r="234" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="28"/>
-      <c r="B234" s="34"/>
-      <c r="F234" s="29"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="34"/>
-      <c r="F235" s="29"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="34"/>
-      <c r="F236" s="29"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="34"/>
-      <c r="F237" s="29"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="34"/>
-      <c r="F238" s="29"/>
-    </row>
   </sheetData>
-  <sortState ref="A52:AA61">
-    <sortCondition ref="B52:B61"/>
+  <sortState ref="A51:AA60">
+    <sortCondition ref="B51:B60"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="F11" r:id="rId1" xr:uid="{28E40BC2-BCB8-49F9-9B0A-9D4B6DEAB2BD}"/>
-    <hyperlink ref="F88" r:id="rId2" xr:uid="{C74A8DB9-F63C-406D-BD1B-5BDCDDFE97C7}"/>
-    <hyperlink ref="F92" r:id="rId3" xr:uid="{8585D042-7C6A-4EA9-B779-69929DB5E6C8}"/>
-    <hyperlink ref="F98" r:id="rId4" xr:uid="{40DB91B3-9730-453C-8FA4-AC2E4393D61C}"/>
-    <hyperlink ref="F104" r:id="rId5" xr:uid="{23FA69EF-2695-4F87-BC28-558A235ED580}"/>
-    <hyperlink ref="F106" r:id="rId6" xr:uid="{042913A2-1E90-428B-99DA-EBF4EC3AEFB9}"/>
-    <hyperlink ref="F108" r:id="rId7" xr:uid="{B83477DC-C27F-4B0F-B26A-F0141C43D3F4}"/>
-    <hyperlink ref="F84" r:id="rId8" xr:uid="{30F57CE6-32A9-4B9A-ADBF-7DAE95E4B404}"/>
-    <hyperlink ref="F72" r:id="rId9" xr:uid="{61FEAAD9-944B-4CB1-8664-25A3CA37F9D0}"/>
-    <hyperlink ref="F64" r:id="rId10" xr:uid="{F27B1907-A127-4587-9530-6F8568B63046}"/>
-    <hyperlink ref="F51" r:id="rId11" xr:uid="{8088087F-4209-4D3C-9CB8-1617B29FD4F6}"/>
-    <hyperlink ref="F45" r:id="rId12" xr:uid="{C2C571CF-CA6D-4B28-82DD-48586656C3BE}"/>
+    <hyperlink ref="F87" r:id="rId2" xr:uid="{C74A8DB9-F63C-406D-BD1B-5BDCDDFE97C7}"/>
+    <hyperlink ref="F91" r:id="rId3" xr:uid="{8585D042-7C6A-4EA9-B779-69929DB5E6C8}"/>
+    <hyperlink ref="F97" r:id="rId4" xr:uid="{40DB91B3-9730-453C-8FA4-AC2E4393D61C}"/>
+    <hyperlink ref="F102" r:id="rId5" xr:uid="{23FA69EF-2695-4F87-BC28-558A235ED580}"/>
+    <hyperlink ref="F104" r:id="rId6" xr:uid="{042913A2-1E90-428B-99DA-EBF4EC3AEFB9}"/>
+    <hyperlink ref="F106" r:id="rId7" xr:uid="{B83477DC-C27F-4B0F-B26A-F0141C43D3F4}"/>
+    <hyperlink ref="F83" r:id="rId8" xr:uid="{30F57CE6-32A9-4B9A-ADBF-7DAE95E4B404}"/>
+    <hyperlink ref="F71" r:id="rId9" xr:uid="{61FEAAD9-944B-4CB1-8664-25A3CA37F9D0}"/>
+    <hyperlink ref="F63" r:id="rId10" xr:uid="{F27B1907-A127-4587-9530-6F8568B63046}"/>
+    <hyperlink ref="F50" r:id="rId11" xr:uid="{8088087F-4209-4D3C-9CB8-1617B29FD4F6}"/>
+    <hyperlink ref="F44" r:id="rId12" xr:uid="{C2C571CF-CA6D-4B28-82DD-48586656C3BE}"/>
     <hyperlink ref="F15" r:id="rId13" xr:uid="{CD044ECE-ACFA-4A3E-B040-8D67CF3ADA12}"/>
-    <hyperlink ref="F19" r:id="rId14" xr:uid="{A60DA7B6-1918-450D-8AB3-5011651F86B7}"/>
-    <hyperlink ref="G28" r:id="rId15" xr:uid="{79503A2C-3A93-4561-9018-3D1C467EB21A}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{A60DA7B6-1918-450D-8AB3-5011651F86B7}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{79503A2C-3A93-4561-9018-3D1C467EB21A}"/>
     <hyperlink ref="O11" r:id="rId16" xr:uid="{30D4C6C6-F6F0-4292-A8E0-7CD8B3E91DBB}"/>
     <hyperlink ref="H15" r:id="rId17" xr:uid="{BD8C3316-D07F-4320-B86D-E6B1041778CB}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{610EBDCD-4C1B-406A-A210-4752316F6906}"/>
-    <hyperlink ref="F40" r:id="rId19" xr:uid="{38E1D56D-EAC1-4529-AE76-45F3CED01FED}"/>
-    <hyperlink ref="F32" r:id="rId20" xr:uid="{062B2A79-10DB-4B48-99CC-89C308D84A68}"/>
-    <hyperlink ref="I32" r:id="rId21" xr:uid="{6749A6CE-83A8-4193-A863-F4CC0BB42103}"/>
-    <hyperlink ref="J40" r:id="rId22" xr:uid="{B1B99EF9-6211-4970-8678-53F4A2F81BA1}"/>
-    <hyperlink ref="K40" r:id="rId23" xr:uid="{DE704324-54B0-4511-973B-D5551EF27CDF}"/>
-    <hyperlink ref="G45" r:id="rId24" xr:uid="{65E3F9A1-1031-4C33-9407-04C3C7A2487D}"/>
-    <hyperlink ref="I45" r:id="rId25" xr:uid="{ED1204F6-690A-40F7-B153-358B2D8168AF}"/>
-    <hyperlink ref="G51" r:id="rId26" xr:uid="{FC5B87CD-A8B0-4028-BE7B-750D0245C4F6}"/>
-    <hyperlink ref="O64" r:id="rId27" xr:uid="{716BF6D8-2A97-4E62-ACE1-C278DB0DBD8C}"/>
-    <hyperlink ref="M64" r:id="rId28" xr:uid="{D959A366-D934-4C4E-BCCA-F4D3DB05603E}"/>
-    <hyperlink ref="G72" r:id="rId29" xr:uid="{5AD93726-F020-4AE5-938D-43DF8B9AA108}"/>
-    <hyperlink ref="I72" r:id="rId30" xr:uid="{2B2484A6-5708-4934-BCDF-003C64DE32EC}"/>
-    <hyperlink ref="N72" r:id="rId31" xr:uid="{EC72EF6E-835A-4275-9FC4-5960659959C3}"/>
-    <hyperlink ref="H72" r:id="rId32" xr:uid="{42D0719A-EF85-40E1-A09F-C5E21C58AE15}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{610EBDCD-4C1B-406A-A210-4752316F6906}"/>
+    <hyperlink ref="F39" r:id="rId19" xr:uid="{38E1D56D-EAC1-4529-AE76-45F3CED01FED}"/>
+    <hyperlink ref="F31" r:id="rId20" xr:uid="{062B2A79-10DB-4B48-99CC-89C308D84A68}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{6749A6CE-83A8-4193-A863-F4CC0BB42103}"/>
+    <hyperlink ref="J39" r:id="rId22" xr:uid="{B1B99EF9-6211-4970-8678-53F4A2F81BA1}"/>
+    <hyperlink ref="K39" r:id="rId23" xr:uid="{DE704324-54B0-4511-973B-D5551EF27CDF}"/>
+    <hyperlink ref="G44" r:id="rId24" xr:uid="{65E3F9A1-1031-4C33-9407-04C3C7A2487D}"/>
+    <hyperlink ref="I44" r:id="rId25" xr:uid="{ED1204F6-690A-40F7-B153-358B2D8168AF}"/>
+    <hyperlink ref="G50" r:id="rId26" xr:uid="{FC5B87CD-A8B0-4028-BE7B-750D0245C4F6}"/>
+    <hyperlink ref="O63" r:id="rId27" xr:uid="{716BF6D8-2A97-4E62-ACE1-C278DB0DBD8C}"/>
+    <hyperlink ref="M63" r:id="rId28" xr:uid="{D959A366-D934-4C4E-BCCA-F4D3DB05603E}"/>
+    <hyperlink ref="G71" r:id="rId29" xr:uid="{5AD93726-F020-4AE5-938D-43DF8B9AA108}"/>
+    <hyperlink ref="I71" r:id="rId30" xr:uid="{2B2484A6-5708-4934-BCDF-003C64DE32EC}"/>
+    <hyperlink ref="N71" r:id="rId31" xr:uid="{EC72EF6E-835A-4275-9FC4-5960659959C3}"/>
+    <hyperlink ref="H71" r:id="rId32" xr:uid="{42D0719A-EF85-40E1-A09F-C5E21C58AE15}"/>
     <hyperlink ref="N2" r:id="rId33" xr:uid="{B3022544-DAEB-4D27-8605-40B7B9E5BA9B}"/>
     <hyperlink ref="L2" r:id="rId34" xr:uid="{18AE875C-A4B0-4A07-A637-40FD35837C99}"/>
     <hyperlink ref="M11" r:id="rId35" xr:uid="{64BD4A2E-6420-4D43-ABDC-688F7B4FE25A}"/>
     <hyperlink ref="O15" r:id="rId36" xr:uid="{EC7922BC-05D5-45EE-873D-E97A7DB92765}"/>
     <hyperlink ref="M15" r:id="rId37" xr:uid="{36C2EC06-22FB-45E4-AD30-792CE0EE21D0}"/>
     <hyperlink ref="I15" r:id="rId38" xr:uid="{9A712F70-2BCF-4632-B3E4-000EE0B6F53D}"/>
-    <hyperlink ref="M28" r:id="rId39" xr:uid="{74C1EADA-6F16-456A-B7E9-55B357F55440}"/>
-    <hyperlink ref="P40" r:id="rId40" xr:uid="{573CB1F9-C643-4585-BBC0-10FD61EA2BAD}"/>
-    <hyperlink ref="M40" r:id="rId41" xr:uid="{7307C82F-DC4D-4D26-B819-9BC15A986172}"/>
-    <hyperlink ref="L45" r:id="rId42" xr:uid="{BD903482-C7B7-455D-A4A2-A9E4D7DBFE47}"/>
-    <hyperlink ref="F118" r:id="rId43" xr:uid="{66DE0CD8-BA2E-43C2-8C3D-4DE61D2D5F5B}"/>
-    <hyperlink ref="I118" r:id="rId44" xr:uid="{55970761-8A74-4433-97B7-41361116CD1F}"/>
-    <hyperlink ref="P51" r:id="rId45" xr:uid="{9C07D3AF-61D7-403C-8534-45C28745BDDE}"/>
-    <hyperlink ref="L64" r:id="rId46" xr:uid="{472827F3-5433-41E3-943B-1DE302123480}"/>
-    <hyperlink ref="M74" r:id="rId47" xr:uid="{D3D2A9A3-73A5-448E-88C8-AAB8492324FE}"/>
-    <hyperlink ref="Q74" r:id="rId48" xr:uid="{1794B407-F99B-402F-9530-DDA225BF60D5}"/>
-    <hyperlink ref="F78" r:id="rId49" xr:uid="{AAF873C5-75EC-4C3B-B69A-170DD1E665E9}"/>
-    <hyperlink ref="R78" r:id="rId50" xr:uid="{E1BA774D-59FA-403A-9378-39B15278C2A6}"/>
-    <hyperlink ref="G78" r:id="rId51" xr:uid="{D19A8074-786C-4F3A-8334-0819384A1DD5}"/>
-    <hyperlink ref="O80" r:id="rId52" xr:uid="{0D199A7D-A2EF-49B8-9D81-37B4878CABB1}"/>
-    <hyperlink ref="I80" r:id="rId53" xr:uid="{AABA5BF9-DD43-4377-AE45-EEFEA982ECCE}"/>
-    <hyperlink ref="N84" r:id="rId54" xr:uid="{77225A15-8AFF-4CBF-946F-E2CABB5C3B62}"/>
-    <hyperlink ref="I84" r:id="rId55" xr:uid="{4585D2E3-9E93-4CD3-A928-D8DFEF3E23B4}"/>
-    <hyperlink ref="H84" r:id="rId56" xr:uid="{FF1DCF4F-1D9F-4199-89C7-D2F47F1A2233}"/>
-    <hyperlink ref="G86" r:id="rId57" xr:uid="{B7F7D2F5-D4FC-4B47-9DE9-1C1F3CF7BD30}"/>
-    <hyperlink ref="G88" r:id="rId58" xr:uid="{615AB2C1-45CB-4629-BE01-132C03ECE1AC}"/>
-    <hyperlink ref="G92" r:id="rId59" xr:uid="{6F31F43E-CDC6-4D8D-A922-4A05D9DA2B1F}"/>
-    <hyperlink ref="L98" r:id="rId60" xr:uid="{8C446902-BCAD-4C78-B94B-51AFA788CF18}"/>
-    <hyperlink ref="I98" r:id="rId61" xr:uid="{B21CC01D-62FE-4AA2-8DBB-3F3DD41E1121}"/>
-    <hyperlink ref="G104" r:id="rId62" xr:uid="{C779BC04-9F12-416E-8AEE-88A806821EB5}"/>
-    <hyperlink ref="P104" r:id="rId63" xr:uid="{B8800D67-CAC0-4B99-AD13-A395B0D93425}"/>
-    <hyperlink ref="I104" r:id="rId64" xr:uid="{96038647-51EB-4788-879A-80A175D87AE6}"/>
-    <hyperlink ref="I106" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/pubmed/24588897" xr:uid="{E0EC1549-E4FB-42D1-BC4E-EBFFB245C329}"/>
-    <hyperlink ref="G106" r:id="rId66" xr:uid="{3AABA46E-95AD-40A6-A784-E2CBCAA44B45}"/>
-    <hyperlink ref="G108" r:id="rId67" xr:uid="{6CA54B9A-805D-4DC9-B311-53916EEDD66B}"/>
-    <hyperlink ref="P106" r:id="rId68" xr:uid="{943091DA-F71B-4360-97F6-9D4AAD0D19C4}"/>
-    <hyperlink ref="M106" r:id="rId69" xr:uid="{E13BAE80-7D3C-472D-9550-801E3D7D8478}"/>
-    <hyperlink ref="M108" r:id="rId70" xr:uid="{2E01CD4E-E93A-46FC-8E12-0EA323AC1034}"/>
-    <hyperlink ref="F115" r:id="rId71" xr:uid="{1DD579FF-A446-4D85-8BC9-8924F88D0BD2}"/>
-    <hyperlink ref="L115" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/pubmed/26920677" xr:uid="{C045229A-BA58-4E34-9EE2-20C60E95C60C}"/>
-    <hyperlink ref="I115" r:id="rId73" xr:uid="{B2B212C3-32CC-4944-944F-ACF7485D4322}"/>
-    <hyperlink ref="G117" r:id="rId74" xr:uid="{E8C1883F-F7A2-418C-8155-B1B7A2256FA5}"/>
-    <hyperlink ref="P117" r:id="rId75" xr:uid="{0C3BAC8F-C0C9-4D7A-B674-02DB7C0AAF93}"/>
-    <hyperlink ref="M117" r:id="rId76" xr:uid="{E6827585-B6E4-4587-8CD2-4D3431685144}"/>
-    <hyperlink ref="L117" r:id="rId77" xr:uid="{45F4A9F9-E12E-4036-A2AC-5FA21C4BE955}"/>
-    <hyperlink ref="G184" r:id="rId78" xr:uid="{64198162-CD0E-4F28-81FA-C1693DFB28FE}"/>
-    <hyperlink ref="G185" r:id="rId79" xr:uid="{F6C3B7CC-B9D6-4B0E-967A-6703CCDF019F}"/>
-    <hyperlink ref="O184" r:id="rId80" xr:uid="{B773A80F-A56E-4BD1-8FEF-A3ED194A7C03}"/>
-    <hyperlink ref="H184" r:id="rId81" xr:uid="{EE9D0AB3-D0C0-4CA4-A001-176175FA8FCF}"/>
-    <hyperlink ref="H185" r:id="rId82" xr:uid="{A1A38074-851B-4BDE-B9B6-46271C70B9BD}"/>
-    <hyperlink ref="H186" r:id="rId83" xr:uid="{F553CBCE-5F43-4883-A6CF-4A04C92B2F95}"/>
-    <hyperlink ref="I184" r:id="rId84" xr:uid="{7F033FAB-8F7C-4D3F-87C3-C8F13D5503C6}"/>
-    <hyperlink ref="O185" r:id="rId85" xr:uid="{303E4C85-777B-43C1-993A-18E33A75941B}"/>
-    <hyperlink ref="O186" r:id="rId86" xr:uid="{93187647-0AAA-48B9-9C5F-61C2B20198A4}"/>
-    <hyperlink ref="I185" r:id="rId87" xr:uid="{0BF86D84-81A6-4988-94DD-F09DB9110B52}"/>
-    <hyperlink ref="O187" r:id="rId88" xr:uid="{5A92CC54-D969-4F00-9B40-930E474DB264}"/>
-    <hyperlink ref="M184" r:id="rId89" xr:uid="{D12B42E8-4955-4A8A-99FA-884FEEC9E80F}"/>
-    <hyperlink ref="M185" r:id="rId90" xr:uid="{A03C0B62-65A0-4BB1-ABF9-C9F187D1B61B}"/>
-    <hyperlink ref="G186" r:id="rId91" xr:uid="{89EAEE69-0E97-41D7-B0BD-AFE1391C7123}"/>
-    <hyperlink ref="M186" r:id="rId92" xr:uid="{87B10270-2792-4DF3-9486-A5C8C7A7F25C}"/>
-    <hyperlink ref="O188" r:id="rId93" xr:uid="{8557A18D-378B-485B-ACD3-1D6761D25995}"/>
-    <hyperlink ref="L184" r:id="rId94" xr:uid="{500B1E4B-9886-42F3-9C4F-370ABC9A4E70}"/>
-    <hyperlink ref="J184" r:id="rId95" xr:uid="{69053814-1456-4AC3-AB4A-1FB4C166CBC0}"/>
-    <hyperlink ref="N184" r:id="rId96" xr:uid="{23760040-924F-48FE-8646-9C11B3CEC4D5}"/>
-    <hyperlink ref="N185" r:id="rId97" xr:uid="{CD5F645D-108E-42B3-A942-7225529382C1}"/>
-    <hyperlink ref="P184" r:id="rId98" xr:uid="{8B26C6B0-3FA4-404D-AD2E-352FBD5089EA}"/>
-    <hyperlink ref="K184" r:id="rId99" xr:uid="{93948F97-1A6C-4FBC-9079-D553E58804B8}"/>
-    <hyperlink ref="M187" r:id="rId100" xr:uid="{9CF97499-EE85-4258-BB15-9EFB93D63E02}"/>
-    <hyperlink ref="L185" r:id="rId101" xr:uid="{F08BB363-3442-422B-88B2-280356C61B03}"/>
-    <hyperlink ref="K185" r:id="rId102" xr:uid="{80A2C433-5A7B-41B3-AD1F-2F7E30590DAC}"/>
-    <hyperlink ref="N186" r:id="rId103" xr:uid="{103C007B-99A1-48F3-BE0E-5815D87137AA}"/>
-    <hyperlink ref="Q184" r:id="rId104" xr:uid="{B194B885-E475-4A4E-A99D-51EAFC6AB0FE}"/>
-    <hyperlink ref="Q185" r:id="rId105" xr:uid="{578D1A3A-FC3E-4674-9525-F0D0F1F18E22}"/>
-    <hyperlink ref="Q186" r:id="rId106" xr:uid="{8991B13C-9D71-4AD7-B37F-0690B122089C}"/>
-    <hyperlink ref="P185" r:id="rId107" xr:uid="{F85571F0-1589-4300-81AC-5876B22A530E}"/>
-    <hyperlink ref="P186" r:id="rId108" xr:uid="{08D05303-8E69-43A8-96C6-FFEFBBA0758E}"/>
-    <hyperlink ref="L186" r:id="rId109" xr:uid="{167C2A72-7EE1-4B9E-9330-0C163690A0E1}"/>
-    <hyperlink ref="H187" r:id="rId110" xr:uid="{8F952668-254C-424D-A89C-3605696DCCBB}"/>
-    <hyperlink ref="P187" r:id="rId111" xr:uid="{A684C8E8-CE54-46E1-BE0F-8D1B59CDCAE0}"/>
-    <hyperlink ref="P188" r:id="rId112" xr:uid="{9B0AE5F9-3098-48BA-ADF3-7B94A48FAE00}"/>
-    <hyperlink ref="R184" r:id="rId113" xr:uid="{6B4B516A-2049-4296-AB37-372CF862CB5B}"/>
-    <hyperlink ref="G187" r:id="rId114" xr:uid="{665E69FB-E7A1-4315-A997-85124B82E8F5}"/>
-    <hyperlink ref="K186" r:id="rId115" xr:uid="{959D296F-F8AD-496E-BEEC-E40C5826031A}"/>
-    <hyperlink ref="O189" r:id="rId116" xr:uid="{69156619-AEEC-4923-B056-0DA20809A963}"/>
-    <hyperlink ref="G188" r:id="rId117" xr:uid="{32C64C9A-0725-4B8C-B183-566517644EBF}"/>
+    <hyperlink ref="M27" r:id="rId39" xr:uid="{74C1EADA-6F16-456A-B7E9-55B357F55440}"/>
+    <hyperlink ref="P39" r:id="rId40" xr:uid="{573CB1F9-C643-4585-BBC0-10FD61EA2BAD}"/>
+    <hyperlink ref="M39" r:id="rId41" xr:uid="{7307C82F-DC4D-4D26-B819-9BC15A986172}"/>
+    <hyperlink ref="L44" r:id="rId42" xr:uid="{BD903482-C7B7-455D-A4A2-A9E4D7DBFE47}"/>
+    <hyperlink ref="F116" r:id="rId43" xr:uid="{66DE0CD8-BA2E-43C2-8C3D-4DE61D2D5F5B}"/>
+    <hyperlink ref="I116" r:id="rId44" xr:uid="{55970761-8A74-4433-97B7-41361116CD1F}"/>
+    <hyperlink ref="P50" r:id="rId45" xr:uid="{9C07D3AF-61D7-403C-8534-45C28745BDDE}"/>
+    <hyperlink ref="L63" r:id="rId46" xr:uid="{472827F3-5433-41E3-943B-1DE302123480}"/>
+    <hyperlink ref="M73" r:id="rId47" xr:uid="{D3D2A9A3-73A5-448E-88C8-AAB8492324FE}"/>
+    <hyperlink ref="Q73" r:id="rId48" xr:uid="{1794B407-F99B-402F-9530-DDA225BF60D5}"/>
+    <hyperlink ref="F77" r:id="rId49" xr:uid="{AAF873C5-75EC-4C3B-B69A-170DD1E665E9}"/>
+    <hyperlink ref="R77" r:id="rId50" xr:uid="{E1BA774D-59FA-403A-9378-39B15278C2A6}"/>
+    <hyperlink ref="G77" r:id="rId51" xr:uid="{D19A8074-786C-4F3A-8334-0819384A1DD5}"/>
+    <hyperlink ref="O79" r:id="rId52" xr:uid="{0D199A7D-A2EF-49B8-9D81-37B4878CABB1}"/>
+    <hyperlink ref="I79" r:id="rId53" xr:uid="{AABA5BF9-DD43-4377-AE45-EEFEA982ECCE}"/>
+    <hyperlink ref="N83" r:id="rId54" xr:uid="{77225A15-8AFF-4CBF-946F-E2CABB5C3B62}"/>
+    <hyperlink ref="I83" r:id="rId55" xr:uid="{4585D2E3-9E93-4CD3-A928-D8DFEF3E23B4}"/>
+    <hyperlink ref="H83" r:id="rId56" xr:uid="{FF1DCF4F-1D9F-4199-89C7-D2F47F1A2233}"/>
+    <hyperlink ref="G85" r:id="rId57" xr:uid="{B7F7D2F5-D4FC-4B47-9DE9-1C1F3CF7BD30}"/>
+    <hyperlink ref="G87" r:id="rId58" xr:uid="{615AB2C1-45CB-4629-BE01-132C03ECE1AC}"/>
+    <hyperlink ref="G91" r:id="rId59" xr:uid="{6F31F43E-CDC6-4D8D-A922-4A05D9DA2B1F}"/>
+    <hyperlink ref="L97" r:id="rId60" xr:uid="{8C446902-BCAD-4C78-B94B-51AFA788CF18}"/>
+    <hyperlink ref="I97" r:id="rId61" xr:uid="{B21CC01D-62FE-4AA2-8DBB-3F3DD41E1121}"/>
+    <hyperlink ref="G102" r:id="rId62" xr:uid="{C779BC04-9F12-416E-8AEE-88A806821EB5}"/>
+    <hyperlink ref="P102" r:id="rId63" xr:uid="{B8800D67-CAC0-4B99-AD13-A395B0D93425}"/>
+    <hyperlink ref="I102" r:id="rId64" xr:uid="{96038647-51EB-4788-879A-80A175D87AE6}"/>
+    <hyperlink ref="I104" r:id="rId65" display="https://www.ncbi.nlm.nih.gov/pubmed/24588897" xr:uid="{E0EC1549-E4FB-42D1-BC4E-EBFFB245C329}"/>
+    <hyperlink ref="G104" r:id="rId66" xr:uid="{3AABA46E-95AD-40A6-A784-E2CBCAA44B45}"/>
+    <hyperlink ref="G106" r:id="rId67" xr:uid="{6CA54B9A-805D-4DC9-B311-53916EEDD66B}"/>
+    <hyperlink ref="P104" r:id="rId68" xr:uid="{943091DA-F71B-4360-97F6-9D4AAD0D19C4}"/>
+    <hyperlink ref="M104" r:id="rId69" xr:uid="{E13BAE80-7D3C-472D-9550-801E3D7D8478}"/>
+    <hyperlink ref="M106" r:id="rId70" xr:uid="{2E01CD4E-E93A-46FC-8E12-0EA323AC1034}"/>
+    <hyperlink ref="F113" r:id="rId71" xr:uid="{1DD579FF-A446-4D85-8BC9-8924F88D0BD2}"/>
+    <hyperlink ref="L113" r:id="rId72" display="https://www.ncbi.nlm.nih.gov/pubmed/26920677" xr:uid="{C045229A-BA58-4E34-9EE2-20C60E95C60C}"/>
+    <hyperlink ref="I113" r:id="rId73" xr:uid="{B2B212C3-32CC-4944-944F-ACF7485D4322}"/>
+    <hyperlink ref="G115" r:id="rId74" xr:uid="{E8C1883F-F7A2-418C-8155-B1B7A2256FA5}"/>
+    <hyperlink ref="P115" r:id="rId75" xr:uid="{0C3BAC8F-C0C9-4D7A-B674-02DB7C0AAF93}"/>
+    <hyperlink ref="M115" r:id="rId76" xr:uid="{E6827585-B6E4-4587-8CD2-4D3431685144}"/>
+    <hyperlink ref="L115" r:id="rId77" xr:uid="{45F4A9F9-E12E-4036-A2AC-5FA21C4BE955}"/>
+    <hyperlink ref="G179" r:id="rId78" xr:uid="{64198162-CD0E-4F28-81FA-C1693DFB28FE}"/>
+    <hyperlink ref="G180" r:id="rId79" xr:uid="{F6C3B7CC-B9D6-4B0E-967A-6703CCDF019F}"/>
+    <hyperlink ref="O179" r:id="rId80" xr:uid="{B773A80F-A56E-4BD1-8FEF-A3ED194A7C03}"/>
+    <hyperlink ref="H179" r:id="rId81" xr:uid="{EE9D0AB3-D0C0-4CA4-A001-176175FA8FCF}"/>
+    <hyperlink ref="H180" r:id="rId82" xr:uid="{A1A38074-851B-4BDE-B9B6-46271C70B9BD}"/>
+    <hyperlink ref="H181" r:id="rId83" xr:uid="{F553CBCE-5F43-4883-A6CF-4A04C92B2F95}"/>
+    <hyperlink ref="I179" r:id="rId84" xr:uid="{7F033FAB-8F7C-4D3F-87C3-C8F13D5503C6}"/>
+    <hyperlink ref="O180" r:id="rId85" xr:uid="{303E4C85-777B-43C1-993A-18E33A75941B}"/>
+    <hyperlink ref="O181" r:id="rId86" xr:uid="{93187647-0AAA-48B9-9C5F-61C2B20198A4}"/>
+    <hyperlink ref="I180" r:id="rId87" xr:uid="{0BF86D84-81A6-4988-94DD-F09DB9110B52}"/>
+    <hyperlink ref="O182" r:id="rId88" xr:uid="{5A92CC54-D969-4F00-9B40-930E474DB264}"/>
+    <hyperlink ref="M179" r:id="rId89" xr:uid="{D12B42E8-4955-4A8A-99FA-884FEEC9E80F}"/>
+    <hyperlink ref="M180" r:id="rId90" xr:uid="{A03C0B62-65A0-4BB1-ABF9-C9F187D1B61B}"/>
+    <hyperlink ref="G181" r:id="rId91" xr:uid="{89EAEE69-0E97-41D7-B0BD-AFE1391C7123}"/>
+    <hyperlink ref="M181" r:id="rId92" xr:uid="{87B10270-2792-4DF3-9486-A5C8C7A7F25C}"/>
+    <hyperlink ref="O183" r:id="rId93" xr:uid="{8557A18D-378B-485B-ACD3-1D6761D25995}"/>
+    <hyperlink ref="L179" r:id="rId94" xr:uid="{500B1E4B-9886-42F3-9C4F-370ABC9A4E70}"/>
+    <hyperlink ref="J179" r:id="rId95" xr:uid="{69053814-1456-4AC3-AB4A-1FB4C166CBC0}"/>
+    <hyperlink ref="N179" r:id="rId96" xr:uid="{23760040-924F-48FE-8646-9C11B3CEC4D5}"/>
+    <hyperlink ref="N180" r:id="rId97" xr:uid="{CD5F645D-108E-42B3-A942-7225529382C1}"/>
+    <hyperlink ref="P179" r:id="rId98" xr:uid="{8B26C6B0-3FA4-404D-AD2E-352FBD5089EA}"/>
+    <hyperlink ref="K179" r:id="rId99" xr:uid="{93948F97-1A6C-4FBC-9079-D553E58804B8}"/>
+    <hyperlink ref="M182" r:id="rId100" xr:uid="{9CF97499-EE85-4258-BB15-9EFB93D63E02}"/>
+    <hyperlink ref="L180" r:id="rId101" xr:uid="{F08BB363-3442-422B-88B2-280356C61B03}"/>
+    <hyperlink ref="K180" r:id="rId102" xr:uid="{80A2C433-5A7B-41B3-AD1F-2F7E30590DAC}"/>
+    <hyperlink ref="N181" r:id="rId103" xr:uid="{103C007B-99A1-48F3-BE0E-5815D87137AA}"/>
+    <hyperlink ref="Q179" r:id="rId104" xr:uid="{B194B885-E475-4A4E-A99D-51EAFC6AB0FE}"/>
+    <hyperlink ref="Q180" r:id="rId105" xr:uid="{578D1A3A-FC3E-4674-9525-F0D0F1F18E22}"/>
+    <hyperlink ref="Q181" r:id="rId106" xr:uid="{8991B13C-9D71-4AD7-B37F-0690B122089C}"/>
+    <hyperlink ref="P180" r:id="rId107" xr:uid="{F85571F0-1589-4300-81AC-5876B22A530E}"/>
+    <hyperlink ref="P181" r:id="rId108" xr:uid="{08D05303-8E69-43A8-96C6-FFEFBBA0758E}"/>
+    <hyperlink ref="L181" r:id="rId109" xr:uid="{167C2A72-7EE1-4B9E-9330-0C163690A0E1}"/>
+    <hyperlink ref="H182" r:id="rId110" xr:uid="{8F952668-254C-424D-A89C-3605696DCCBB}"/>
+    <hyperlink ref="P182" r:id="rId111" xr:uid="{A684C8E8-CE54-46E1-BE0F-8D1B59CDCAE0}"/>
+    <hyperlink ref="P183" r:id="rId112" xr:uid="{9B0AE5F9-3098-48BA-ADF3-7B94A48FAE00}"/>
+    <hyperlink ref="R179" r:id="rId113" xr:uid="{6B4B516A-2049-4296-AB37-372CF862CB5B}"/>
+    <hyperlink ref="G182" r:id="rId114" xr:uid="{665E69FB-E7A1-4315-A997-85124B82E8F5}"/>
+    <hyperlink ref="K181" r:id="rId115" xr:uid="{959D296F-F8AD-496E-BEEC-E40C5826031A}"/>
+    <hyperlink ref="O184" r:id="rId116" xr:uid="{69156619-AEEC-4923-B056-0DA20809A963}"/>
+    <hyperlink ref="G183" r:id="rId117" xr:uid="{32C64C9A-0725-4B8C-B183-566517644EBF}"/>
     <hyperlink ref="G2" r:id="rId118" xr:uid="{00ADEB63-DE81-45B2-B351-E97FA63028DA}"/>
-    <hyperlink ref="G80" r:id="rId119" xr:uid="{AC538846-9D45-4E2E-AAE1-883237B36D1D}"/>
-    <hyperlink ref="F209" r:id="rId120" xr:uid="{AE66C804-52E7-4EA3-B404-5309CD77F988}"/>
-    <hyperlink ref="F205" r:id="rId121" xr:uid="{3DD7CFC8-DEAB-41B3-A640-F76BB9F9E67A}"/>
-    <hyperlink ref="F206" r:id="rId122" xr:uid="{D85B5AEB-36CC-444E-90DC-8A58085DEE82}"/>
-    <hyperlink ref="F207" r:id="rId123" xr:uid="{143DC039-D865-44E7-A9EC-54C9899D134F}"/>
-    <hyperlink ref="F208" r:id="rId124" xr:uid="{8137261A-E357-4D2C-BF6A-1FD51593F9D6}"/>
-    <hyperlink ref="F204" r:id="rId125" xr:uid="{540547CC-99E0-481D-8A96-EFD000C281AC}"/>
-    <hyperlink ref="F197" r:id="rId126" xr:uid="{8D3C1FFF-5C92-4ED5-AA16-D0820E90A9A6}"/>
-    <hyperlink ref="F196" r:id="rId127" xr:uid="{A6DDB546-5B81-493D-828A-B8008368FA32}"/>
-    <hyperlink ref="F202" r:id="rId128" xr:uid="{4148153B-5497-442D-A1BD-4A9EB653ADBA}"/>
-    <hyperlink ref="F199" r:id="rId129" xr:uid="{D2360AA4-69F0-447D-94AD-63FD0BB6A367}"/>
-    <hyperlink ref="F203" r:id="rId130" xr:uid="{EA6FBA5E-F274-4F68-B55B-0EABE9C8F744}"/>
-    <hyperlink ref="F200" r:id="rId131" xr:uid="{AC6BCB08-A1EA-4330-BA7B-84E649C848E6}"/>
-    <hyperlink ref="R92" r:id="rId132" xr:uid="{ECF8C995-9A0A-4D8F-B65D-E7520B97DCE4}"/>
-    <hyperlink ref="L92" r:id="rId133" display="https://www.ncbi.nlm.nih.gov/pubmed/22072275" xr:uid="{15382970-E8C0-4AA3-8E78-1ACE4EFE5B1E}"/>
-    <hyperlink ref="H92" r:id="rId134" xr:uid="{53B47E8A-E7CC-4DBF-8A23-FBCAD481A70A}"/>
-    <hyperlink ref="K92" r:id="rId135" xr:uid="{ABAF0690-55A7-40F4-AB7C-49B16AE35DBE}"/>
-    <hyperlink ref="H19" r:id="rId136" xr:uid="{DE861242-A138-492B-929F-2CB936A54905}"/>
-    <hyperlink ref="M56" r:id="rId137" display="https://www.ncbi.nlm.nih.gov/pubmed/29100069" xr:uid="{57E50469-AE94-437B-8661-34C642EB1886}"/>
-    <hyperlink ref="F37" r:id="rId138" xr:uid="{ED3BC725-F9D8-422F-97E7-F419B1C65E1A}"/>
-    <hyperlink ref="F34" r:id="rId139" xr:uid="{C3E60E88-B62F-406E-AC21-60D6D4A81508}"/>
-    <hyperlink ref="F33" r:id="rId140" xr:uid="{E9CE5E39-BA52-4B13-AAB3-61B80EBCD0C8}"/>
+    <hyperlink ref="G79" r:id="rId119" xr:uid="{AC538846-9D45-4E2E-AAE1-883237B36D1D}"/>
+    <hyperlink ref="F204" r:id="rId120" xr:uid="{AE66C804-52E7-4EA3-B404-5309CD77F988}"/>
+    <hyperlink ref="F200" r:id="rId121" xr:uid="{3DD7CFC8-DEAB-41B3-A640-F76BB9F9E67A}"/>
+    <hyperlink ref="F201" r:id="rId122" xr:uid="{D85B5AEB-36CC-444E-90DC-8A58085DEE82}"/>
+    <hyperlink ref="F202" r:id="rId123" xr:uid="{143DC039-D865-44E7-A9EC-54C9899D134F}"/>
+    <hyperlink ref="F203" r:id="rId124" xr:uid="{8137261A-E357-4D2C-BF6A-1FD51593F9D6}"/>
+    <hyperlink ref="F199" r:id="rId125" xr:uid="{540547CC-99E0-481D-8A96-EFD000C281AC}"/>
+    <hyperlink ref="F192" r:id="rId126" xr:uid="{8D3C1FFF-5C92-4ED5-AA16-D0820E90A9A6}"/>
+    <hyperlink ref="F191" r:id="rId127" xr:uid="{A6DDB546-5B81-493D-828A-B8008368FA32}"/>
+    <hyperlink ref="F197" r:id="rId128" xr:uid="{4148153B-5497-442D-A1BD-4A9EB653ADBA}"/>
+    <hyperlink ref="F194" r:id="rId129" xr:uid="{D2360AA4-69F0-447D-94AD-63FD0BB6A367}"/>
+    <hyperlink ref="F198" r:id="rId130" xr:uid="{EA6FBA5E-F274-4F68-B55B-0EABE9C8F744}"/>
+    <hyperlink ref="F195" r:id="rId131" xr:uid="{AC6BCB08-A1EA-4330-BA7B-84E649C848E6}"/>
+    <hyperlink ref="R91" r:id="rId132" xr:uid="{ECF8C995-9A0A-4D8F-B65D-E7520B97DCE4}"/>
+    <hyperlink ref="L91" r:id="rId133" display="https://www.ncbi.nlm.nih.gov/pubmed/22072275" xr:uid="{15382970-E8C0-4AA3-8E78-1ACE4EFE5B1E}"/>
+    <hyperlink ref="H91" r:id="rId134" xr:uid="{53B47E8A-E7CC-4DBF-8A23-FBCAD481A70A}"/>
+    <hyperlink ref="K91" r:id="rId135" xr:uid="{ABAF0690-55A7-40F4-AB7C-49B16AE35DBE}"/>
+    <hyperlink ref="H18" r:id="rId136" xr:uid="{DE861242-A138-492B-929F-2CB936A54905}"/>
+    <hyperlink ref="M55" r:id="rId137" display="https://www.ncbi.nlm.nih.gov/pubmed/29100069" xr:uid="{57E50469-AE94-437B-8661-34C642EB1886}"/>
+    <hyperlink ref="F36" r:id="rId138" xr:uid="{ED3BC725-F9D8-422F-97E7-F419B1C65E1A}"/>
+    <hyperlink ref="F33" r:id="rId139" xr:uid="{C3E60E88-B62F-406E-AC21-60D6D4A81508}"/>
+    <hyperlink ref="F32" r:id="rId140" xr:uid="{E9CE5E39-BA52-4B13-AAB3-61B80EBCD0C8}"/>
     <hyperlink ref="F2" r:id="rId141" xr:uid="{7417AFCA-A059-4FB8-AAD8-79F24C037230}"/>
-    <hyperlink ref="I121" r:id="rId142" xr:uid="{77B6BA64-218A-40F0-A9D0-18464F9BABB4}"/>
+    <hyperlink ref="I119" r:id="rId142" xr:uid="{77B6BA64-218A-40F0-A9D0-18464F9BABB4}"/>
     <hyperlink ref="I4" r:id="rId143" xr:uid="{AE4DDE87-2C05-4852-AD2A-845979E2210C}"/>
     <hyperlink ref="I3" r:id="rId144" xr:uid="{DD70808F-2C4F-4F2B-B635-FE2C27CCAD54}"/>
     <hyperlink ref="I6" r:id="rId145" xr:uid="{703AB0FA-F8AF-4998-8AEB-0F728BA80B22}"/>
     <hyperlink ref="I10" r:id="rId146" xr:uid="{3CAC1836-9D07-4862-B391-D0D7B40EFB6A}"/>
-    <hyperlink ref="F96" r:id="rId147" xr:uid="{6AAAAC45-E32B-43EA-9C00-DD1D59EBE1DF}"/>
-    <hyperlink ref="F97" r:id="rId148" xr:uid="{9B148CFC-791E-428A-A066-27C84A6860E7}"/>
-    <hyperlink ref="G96" r:id="rId149" xr:uid="{FBE29CBA-5B16-49C9-B70C-16F50B4855F5}"/>
-    <hyperlink ref="G97" r:id="rId150" xr:uid="{69D4EDCF-E9EF-4A11-8461-7868344F8DD7}"/>
-    <hyperlink ref="H94" r:id="rId151" xr:uid="{036C850F-B803-4D5E-A0C1-E519461BFB98}"/>
-    <hyperlink ref="K94" r:id="rId152" xr:uid="{30F734D3-C628-47A9-AB9B-9AE64FD6E793}"/>
-    <hyperlink ref="H93" r:id="rId153" xr:uid="{A62525E4-353C-4D2C-86B0-10E6C0FA2075}"/>
-    <hyperlink ref="K93" r:id="rId154" xr:uid="{0A7EDA69-ED56-46A7-BD13-CCD9ACA45C33}"/>
-    <hyperlink ref="G31" r:id="rId155" xr:uid="{D4E17B78-04ED-4F49-8DC0-6119ACC36694}"/>
-    <hyperlink ref="G29" r:id="rId156" xr:uid="{2EFC0B99-5F57-439C-AC47-BB514F54BD9F}"/>
-    <hyperlink ref="G89" r:id="rId157" xr:uid="{8E71504F-C7DC-42A8-9B20-61F03E23108E}"/>
-    <hyperlink ref="G90" r:id="rId158" xr:uid="{791A532D-4A3F-454A-8E20-31861732D61C}"/>
-    <hyperlink ref="G91" r:id="rId159" xr:uid="{710A8E97-7DDA-4D38-AD0B-D3CA4146AEF6}"/>
-    <hyperlink ref="G58" r:id="rId160" xr:uid="{3BCD13F9-5933-4493-8E57-4BBCED1B251F}"/>
-    <hyperlink ref="G52" r:id="rId161" xr:uid="{5625A975-B0BD-493B-91CE-C0FD1DED9E1E}"/>
-    <hyperlink ref="G55" r:id="rId162" xr:uid="{49131EBF-8D77-4C51-AFEE-D16A407522B0}"/>
-    <hyperlink ref="G56" r:id="rId163" xr:uid="{58A342F0-9B7F-4486-A0B5-793DF28B0F0F}"/>
-    <hyperlink ref="G57" r:id="rId164" xr:uid="{47978846-2D16-4A0C-8C59-D105F4971E9F}"/>
-    <hyperlink ref="F25" r:id="rId165" xr:uid="{3565619B-53C9-4C94-A3A1-23BD6FA985DB}"/>
-    <hyperlink ref="G25" r:id="rId166" xr:uid="{158F2EDA-4D79-4F33-BBDE-941D8E264372}"/>
-    <hyperlink ref="F87" r:id="rId167" xr:uid="{EC7A9893-70EC-49D0-8D5A-41BE42D40FD0}"/>
-    <hyperlink ref="G87" r:id="rId168" xr:uid="{DB3CC854-4518-4088-8B52-887DA5C0D713}"/>
-    <hyperlink ref="F105" r:id="rId169" xr:uid="{B18C88A5-4112-4361-915A-1A9438D7FAA1}"/>
-    <hyperlink ref="F109" r:id="rId170" xr:uid="{AB751729-B367-4CDB-9E5C-6BC44119396F}"/>
-    <hyperlink ref="F211" r:id="rId171" xr:uid="{99F8FF92-CC88-4419-A473-960B9B387A69}"/>
-    <hyperlink ref="F107" r:id="rId172" xr:uid="{7E77B44A-D4FC-4549-8F0D-65DDB776C80C}"/>
-    <hyperlink ref="G30" r:id="rId173" xr:uid="{5B42715D-8FF4-4489-8897-1083FEE3D5A6}"/>
-    <hyperlink ref="G109" r:id="rId174" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{52B5AB4A-2E32-4E01-8DED-60AC187D3CF6}"/>
-    <hyperlink ref="G107" r:id="rId175" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{01422F6B-8DC5-4029-A182-F18EC1871176}"/>
-    <hyperlink ref="G105" r:id="rId176" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{DA59F0E8-213D-4F31-B306-BD3A375D9931}"/>
-    <hyperlink ref="F85" r:id="rId177" xr:uid="{E2CD186F-C421-4A36-BEA5-2B2E454689D3}"/>
-    <hyperlink ref="F80" r:id="rId178" xr:uid="{7891FD7B-F5F5-4D78-A1A4-06E2D944D025}"/>
-    <hyperlink ref="F62" r:id="rId179" xr:uid="{D9BD27CD-6F81-43F7-869D-2360DB5527F3}"/>
-    <hyperlink ref="F63" r:id="rId180" xr:uid="{B3653683-01A3-4606-B88A-24FA3EEB646B}"/>
-    <hyperlink ref="G40" r:id="rId181" xr:uid="{DD1E5997-F9AA-4FCF-8B56-FAF8559AA7F1}"/>
-    <hyperlink ref="F44" r:id="rId182" xr:uid="{11868D1D-CAA8-473C-A2EF-F765632CC0AE}"/>
-    <hyperlink ref="G44" r:id="rId183" xr:uid="{2AAE3D57-2FF6-4C14-B9CA-DB360BE4EAE2}"/>
+    <hyperlink ref="F95" r:id="rId147" xr:uid="{6AAAAC45-E32B-43EA-9C00-DD1D59EBE1DF}"/>
+    <hyperlink ref="F96" r:id="rId148" xr:uid="{9B148CFC-791E-428A-A066-27C84A6860E7}"/>
+    <hyperlink ref="G95" r:id="rId149" xr:uid="{FBE29CBA-5B16-49C9-B70C-16F50B4855F5}"/>
+    <hyperlink ref="G96" r:id="rId150" xr:uid="{69D4EDCF-E9EF-4A11-8461-7868344F8DD7}"/>
+    <hyperlink ref="H93" r:id="rId151" xr:uid="{036C850F-B803-4D5E-A0C1-E519461BFB98}"/>
+    <hyperlink ref="K93" r:id="rId152" xr:uid="{30F734D3-C628-47A9-AB9B-9AE64FD6E793}"/>
+    <hyperlink ref="H92" r:id="rId153" xr:uid="{A62525E4-353C-4D2C-86B0-10E6C0FA2075}"/>
+    <hyperlink ref="K92" r:id="rId154" xr:uid="{0A7EDA69-ED56-46A7-BD13-CCD9ACA45C33}"/>
+    <hyperlink ref="G30" r:id="rId155" xr:uid="{D4E17B78-04ED-4F49-8DC0-6119ACC36694}"/>
+    <hyperlink ref="G28" r:id="rId156" xr:uid="{2EFC0B99-5F57-439C-AC47-BB514F54BD9F}"/>
+    <hyperlink ref="G88" r:id="rId157" xr:uid="{8E71504F-C7DC-42A8-9B20-61F03E23108E}"/>
+    <hyperlink ref="G89" r:id="rId158" xr:uid="{791A532D-4A3F-454A-8E20-31861732D61C}"/>
+    <hyperlink ref="G90" r:id="rId159" xr:uid="{710A8E97-7DDA-4D38-AD0B-D3CA4146AEF6}"/>
+    <hyperlink ref="G57" r:id="rId160" xr:uid="{3BCD13F9-5933-4493-8E57-4BBCED1B251F}"/>
+    <hyperlink ref="G51" r:id="rId161" xr:uid="{5625A975-B0BD-493B-91CE-C0FD1DED9E1E}"/>
+    <hyperlink ref="G54" r:id="rId162" xr:uid="{49131EBF-8D77-4C51-AFEE-D16A407522B0}"/>
+    <hyperlink ref="G55" r:id="rId163" xr:uid="{58A342F0-9B7F-4486-A0B5-793DF28B0F0F}"/>
+    <hyperlink ref="G56" r:id="rId164" xr:uid="{47978846-2D16-4A0C-8C59-D105F4971E9F}"/>
+    <hyperlink ref="F24" r:id="rId165" xr:uid="{3565619B-53C9-4C94-A3A1-23BD6FA985DB}"/>
+    <hyperlink ref="G24" r:id="rId166" xr:uid="{158F2EDA-4D79-4F33-BBDE-941D8E264372}"/>
+    <hyperlink ref="F86" r:id="rId167" xr:uid="{EC7A9893-70EC-49D0-8D5A-41BE42D40FD0}"/>
+    <hyperlink ref="G86" r:id="rId168" xr:uid="{DB3CC854-4518-4088-8B52-887DA5C0D713}"/>
+    <hyperlink ref="F103" r:id="rId169" xr:uid="{B18C88A5-4112-4361-915A-1A9438D7FAA1}"/>
+    <hyperlink ref="F107" r:id="rId170" xr:uid="{AB751729-B367-4CDB-9E5C-6BC44119396F}"/>
+    <hyperlink ref="F206" r:id="rId171" xr:uid="{99F8FF92-CC88-4419-A473-960B9B387A69}"/>
+    <hyperlink ref="F105" r:id="rId172" xr:uid="{7E77B44A-D4FC-4549-8F0D-65DDB776C80C}"/>
+    <hyperlink ref="G29" r:id="rId173" xr:uid="{5B42715D-8FF4-4489-8897-1083FEE3D5A6}"/>
+    <hyperlink ref="G107" r:id="rId174" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{52B5AB4A-2E32-4E01-8DED-60AC187D3CF6}"/>
+    <hyperlink ref="G105" r:id="rId175" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{01422F6B-8DC5-4029-A182-F18EC1871176}"/>
+    <hyperlink ref="G103" r:id="rId176" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{DA59F0E8-213D-4F31-B306-BD3A375D9931}"/>
+    <hyperlink ref="F84" r:id="rId177" xr:uid="{E2CD186F-C421-4A36-BEA5-2B2E454689D3}"/>
+    <hyperlink ref="F79" r:id="rId178" xr:uid="{7891FD7B-F5F5-4D78-A1A4-06E2D944D025}"/>
+    <hyperlink ref="F61" r:id="rId179" xr:uid="{D9BD27CD-6F81-43F7-869D-2360DB5527F3}"/>
+    <hyperlink ref="F62" r:id="rId180" xr:uid="{B3653683-01A3-4606-B88A-24FA3EEB646B}"/>
+    <hyperlink ref="G39" r:id="rId181" xr:uid="{DD1E5997-F9AA-4FCF-8B56-FAF8559AA7F1}"/>
+    <hyperlink ref="F43" r:id="rId182" xr:uid="{11868D1D-CAA8-473C-A2EF-F765632CC0AE}"/>
+    <hyperlink ref="G43" r:id="rId183" xr:uid="{2AAE3D57-2FF6-4C14-B9CA-DB360BE4EAE2}"/>
     <hyperlink ref="O12" r:id="rId184" xr:uid="{02241941-503A-4668-8C15-2C2DEA75BBF0}"/>
-    <hyperlink ref="G20" r:id="rId185" xr:uid="{20EC065C-03F7-45E8-AFC9-23BD6A0E7A34}"/>
-    <hyperlink ref="H20" r:id="rId186" xr:uid="{6C1D3DC4-7F20-45DA-925B-658B9429AF87}"/>
-    <hyperlink ref="G114" r:id="rId187" xr:uid="{F699817B-FFE2-403A-9683-3D6817423593}"/>
-    <hyperlink ref="G113" r:id="rId188" xr:uid="{DB0C8772-6924-4188-81CD-C91E21A285C0}"/>
+    <hyperlink ref="G19" r:id="rId185" xr:uid="{20EC065C-03F7-45E8-AFC9-23BD6A0E7A34}"/>
+    <hyperlink ref="H19" r:id="rId186" xr:uid="{6C1D3DC4-7F20-45DA-925B-658B9429AF87}"/>
+    <hyperlink ref="G112" r:id="rId187" xr:uid="{F699817B-FFE2-403A-9683-3D6817423593}"/>
+    <hyperlink ref="G111" r:id="rId188" xr:uid="{DB0C8772-6924-4188-81CD-C91E21A285C0}"/>
     <hyperlink ref="I9" r:id="rId189" xr:uid="{4A815AB7-B08E-4442-A825-1C39EF7663F3}"/>
-    <hyperlink ref="D39" r:id="rId190" xr:uid="{85658ED4-694D-49E1-94D3-AEDCD1EECAF1}"/>
-    <hyperlink ref="D121" r:id="rId191" xr:uid="{27E3B63B-B1CB-4DD4-A37F-5EC8EF300741}"/>
-    <hyperlink ref="D116" r:id="rId192" xr:uid="{27E1BE86-6A3E-4907-814C-58410150BC47}"/>
-    <hyperlink ref="D114" r:id="rId193" xr:uid="{04E3ABD7-F67A-4528-98B9-1B50960D1F88}"/>
+    <hyperlink ref="D38" r:id="rId190" xr:uid="{85658ED4-694D-49E1-94D3-AEDCD1EECAF1}"/>
+    <hyperlink ref="D119" r:id="rId191" xr:uid="{27E3B63B-B1CB-4DD4-A37F-5EC8EF300741}"/>
+    <hyperlink ref="D114" r:id="rId192" xr:uid="{27E1BE86-6A3E-4907-814C-58410150BC47}"/>
+    <hyperlink ref="D112" r:id="rId193" xr:uid="{04E3ABD7-F67A-4528-98B9-1B50960D1F88}"/>
     <hyperlink ref="D3" r:id="rId194" xr:uid="{FE75FA5B-8FF2-49A6-A743-3E87770483B0}"/>
     <hyperlink ref="D4" r:id="rId195" xr:uid="{7244D768-19DE-4591-A12C-459D212F4FA7}"/>
     <hyperlink ref="D5" r:id="rId196" xr:uid="{78198153-5268-4A37-8C32-AAC2F8A94FF9}"/>
@@ -8278,25 +8982,25 @@
     <hyperlink ref="D12" r:id="rId201" xr:uid="{7AE3C53B-04A7-4193-B807-2934E378948E}"/>
     <hyperlink ref="D10" r:id="rId202" xr:uid="{8445CEE7-99EC-496E-A219-D79FC1CC3168}"/>
     <hyperlink ref="D13" r:id="rId203" xr:uid="{D5C5A3F8-3DB5-4094-ADF4-0EDEA69CB2BA}"/>
-    <hyperlink ref="D18" r:id="rId204" xr:uid="{5B6A77C0-E50F-496B-9CD9-B86CC92FFD0F}"/>
+    <hyperlink ref="D17" r:id="rId204" xr:uid="{5B6A77C0-E50F-496B-9CD9-B86CC92FFD0F}"/>
     <hyperlink ref="D14" r:id="rId205" xr:uid="{6C4C5907-491F-4F9A-9368-7CD8A99F6B4C}"/>
-    <hyperlink ref="D20" r:id="rId206" xr:uid="{5F16E08E-426F-4D25-8301-0F0C9543CE35}"/>
-    <hyperlink ref="D23" r:id="rId207" xr:uid="{B5049060-D599-4C38-9F7F-1D1DBD4EA551}"/>
-    <hyperlink ref="D22" r:id="rId208" xr:uid="{92B4E3EA-0DCE-4830-84D0-8A8D58B0D807}"/>
-    <hyperlink ref="D21" r:id="rId209" xr:uid="{26E7281F-9176-4A77-8C4F-80DC795E9E18}"/>
-    <hyperlink ref="D24" r:id="rId210" xr:uid="{34A65145-4319-479F-AFB1-210FC9615AB3}"/>
-    <hyperlink ref="D26" r:id="rId211" xr:uid="{2419A27B-9856-4753-BB3B-2757BC386F45}"/>
-    <hyperlink ref="D25" r:id="rId212" xr:uid="{B14C4E08-1C0B-4C25-B50E-A786CE4C616F}"/>
-    <hyperlink ref="D27" r:id="rId213" xr:uid="{E185A361-5CB9-49E7-A126-7F564AFF0FA3}"/>
-    <hyperlink ref="D30" r:id="rId214" xr:uid="{61A618A2-4CFB-48AE-93EB-4D136711E636}"/>
-    <hyperlink ref="D29" r:id="rId215" xr:uid="{4218F307-9BE9-4F0D-AA7D-06E2DBBC5B4B}"/>
-    <hyperlink ref="D38" r:id="rId216" xr:uid="{4C9DAC0D-A0B1-4CE2-9007-08898DB3F24C}"/>
-    <hyperlink ref="D37" r:id="rId217" xr:uid="{CF2B795B-A63F-4A08-BAF6-2E5E3EADC182}"/>
-    <hyperlink ref="D36" r:id="rId218" xr:uid="{A9A935EC-8B75-4022-B54B-427222736896}"/>
-    <hyperlink ref="D34" r:id="rId219" xr:uid="{211E14B9-76A3-4CFB-952D-7DD1361B8704}"/>
-    <hyperlink ref="D33" r:id="rId220" xr:uid="{6C3E2E4E-6DE7-48DD-850F-56940239F827}"/>
-    <hyperlink ref="D31" r:id="rId221" xr:uid="{D3B488AC-C065-4D3F-A624-B4870CABDD82}"/>
-    <hyperlink ref="D44" r:id="rId222" xr:uid="{BBCB04C6-124A-4265-919E-F0BB626F72D5}"/>
+    <hyperlink ref="D19" r:id="rId206" xr:uid="{5F16E08E-426F-4D25-8301-0F0C9543CE35}"/>
+    <hyperlink ref="D22" r:id="rId207" xr:uid="{B5049060-D599-4C38-9F7F-1D1DBD4EA551}"/>
+    <hyperlink ref="D21" r:id="rId208" xr:uid="{92B4E3EA-0DCE-4830-84D0-8A8D58B0D807}"/>
+    <hyperlink ref="D20" r:id="rId209" xr:uid="{26E7281F-9176-4A77-8C4F-80DC795E9E18}"/>
+    <hyperlink ref="D23" r:id="rId210" xr:uid="{34A65145-4319-479F-AFB1-210FC9615AB3}"/>
+    <hyperlink ref="D25" r:id="rId211" xr:uid="{2419A27B-9856-4753-BB3B-2757BC386F45}"/>
+    <hyperlink ref="D24" r:id="rId212" xr:uid="{B14C4E08-1C0B-4C25-B50E-A786CE4C616F}"/>
+    <hyperlink ref="D26" r:id="rId213" xr:uid="{E185A361-5CB9-49E7-A126-7F564AFF0FA3}"/>
+    <hyperlink ref="D29" r:id="rId214" xr:uid="{61A618A2-4CFB-48AE-93EB-4D136711E636}"/>
+    <hyperlink ref="D28" r:id="rId215" xr:uid="{4218F307-9BE9-4F0D-AA7D-06E2DBBC5B4B}"/>
+    <hyperlink ref="D37" r:id="rId216" xr:uid="{4C9DAC0D-A0B1-4CE2-9007-08898DB3F24C}"/>
+    <hyperlink ref="D36" r:id="rId217" xr:uid="{CF2B795B-A63F-4A08-BAF6-2E5E3EADC182}"/>
+    <hyperlink ref="D35" r:id="rId218" xr:uid="{A9A935EC-8B75-4022-B54B-427222736896}"/>
+    <hyperlink ref="D33" r:id="rId219" xr:uid="{211E14B9-76A3-4CFB-952D-7DD1361B8704}"/>
+    <hyperlink ref="D32" r:id="rId220" xr:uid="{6C3E2E4E-6DE7-48DD-850F-56940239F827}"/>
+    <hyperlink ref="D30" r:id="rId221" xr:uid="{D3B488AC-C065-4D3F-A624-B4870CABDD82}"/>
+    <hyperlink ref="D43" r:id="rId222" xr:uid="{BBCB04C6-124A-4265-919E-F0BB626F72D5}"/>
     <hyperlink ref="J4" r:id="rId223" xr:uid="{ED3A8A8C-6262-4F28-8296-D0B632EEA7F7}"/>
     <hyperlink ref="I5" r:id="rId224" xr:uid="{5A63A59B-C5A7-4710-8188-700D20E9347A}"/>
     <hyperlink ref="I7" r:id="rId225" xr:uid="{399C6031-BCD2-41F3-A794-FC2FCE828F91}"/>
@@ -8305,171 +9009,179 @@
     <hyperlink ref="H10" r:id="rId228" xr:uid="{861D68F2-083B-4C59-B364-A8FCFC4A3544}"/>
     <hyperlink ref="Q9" r:id="rId229" xr:uid="{0753D98B-9182-453F-85EE-8D130D29A0CA}"/>
     <hyperlink ref="Q12" r:id="rId230" xr:uid="{FF1A7CDE-7047-49AD-857A-06443B3FFFE9}"/>
-    <hyperlink ref="O33" r:id="rId231" xr:uid="{32A80BC3-36E9-4651-A412-F63EB0CBC3C7}"/>
-    <hyperlink ref="O34" r:id="rId232" xr:uid="{89F49EB7-E752-451A-991A-5D9E0F66046C}"/>
-    <hyperlink ref="I29" r:id="rId233" xr:uid="{7B436C06-1944-4291-B712-96BAD5B97980}"/>
-    <hyperlink ref="I31" r:id="rId234" xr:uid="{F3E8D0F9-5354-4703-A129-42F33E6DB131}"/>
-    <hyperlink ref="G33" r:id="rId235" xr:uid="{153F0C76-E414-4959-A247-964A1C32AE3E}"/>
-    <hyperlink ref="H39" r:id="rId236" xr:uid="{EB97D7BB-CA80-4D85-8221-D52E6C572E2B}"/>
-    <hyperlink ref="H44" r:id="rId237" xr:uid="{13A00730-199E-4D46-A7F9-CB103C43C253}"/>
-    <hyperlink ref="L38" r:id="rId238" xr:uid="{B6973A0E-FA7A-4555-9453-1ACFE472D84C}"/>
-    <hyperlink ref="L44" r:id="rId239" xr:uid="{9254C69E-55BF-4F9E-9F92-FA5B57CB7EE8}"/>
-    <hyperlink ref="M38" r:id="rId240" xr:uid="{869209C2-B41E-4F58-86E9-87D340884D0B}"/>
-    <hyperlink ref="D46" r:id="rId241" xr:uid="{E85168A4-1DD3-471B-9E34-FB173BA795FF}"/>
-    <hyperlink ref="D50" r:id="rId242" xr:uid="{7DE847EB-7790-4D51-B8E0-BEE1885434F1}"/>
-    <hyperlink ref="D49" r:id="rId243" xr:uid="{5BEBFD6F-DCD4-4390-B584-C38A7FB52CE3}"/>
-    <hyperlink ref="I49" r:id="rId244" xr:uid="{91C8B0F2-96B7-4051-BD48-06D67C083BA1}"/>
-    <hyperlink ref="J49" r:id="rId245" xr:uid="{991F696C-71D3-4074-AEF9-889326D54185}"/>
-    <hyperlink ref="L49" r:id="rId246" xr:uid="{FAAC7830-0720-417B-931F-3875F1863223}"/>
-    <hyperlink ref="M49" r:id="rId247" xr:uid="{A5CA2205-B6DA-4280-8D63-73E5C9601D6B}"/>
-    <hyperlink ref="N49" r:id="rId248" xr:uid="{5D77EF79-CD25-40A7-80FC-798224630A70}"/>
-    <hyperlink ref="Q49" r:id="rId249" xr:uid="{20EA59B1-1D94-4AEA-AF93-E359EEB5466D}"/>
-    <hyperlink ref="D58" r:id="rId250" xr:uid="{2981B6CA-C3D7-4604-A572-198149F270A7}"/>
-    <hyperlink ref="D52" r:id="rId251" xr:uid="{E5B3DBAA-B602-4D30-BF02-A070B98F9E2D}"/>
-    <hyperlink ref="D55" r:id="rId252" xr:uid="{C2E040B5-0FD3-4F18-ACDF-2A9F0A290CA3}"/>
-    <hyperlink ref="D57" r:id="rId253" xr:uid="{8A33E44B-A7EB-4344-B9CC-AB866EDDF474}"/>
-    <hyperlink ref="D54" r:id="rId254" xr:uid="{656B027A-6D35-4265-A8C4-EC2168D1B5DB}"/>
-    <hyperlink ref="D61" r:id="rId255" xr:uid="{0F5A123E-BC6B-4668-8BEB-1BF42B567A09}"/>
-    <hyperlink ref="H61" r:id="rId256" xr:uid="{6058CDEB-3729-4AE5-87A7-E76899973570}"/>
-    <hyperlink ref="D56" r:id="rId257" xr:uid="{778C393A-912B-484C-97D2-FFA9CE1FF480}"/>
-    <hyperlink ref="D63" r:id="rId258" xr:uid="{6EA097DF-5D8F-4865-88E1-7C90735107EF}"/>
-    <hyperlink ref="D65" r:id="rId259" xr:uid="{F94B5388-9249-4B29-B2AB-8B186207E894}"/>
-    <hyperlink ref="D66" r:id="rId260" xr:uid="{2D78BB74-165A-4E21-BE58-DD4725B74138}"/>
-    <hyperlink ref="D67" r:id="rId261" xr:uid="{6F2DC36F-EF82-409B-81CD-3E1027F47F22}"/>
-    <hyperlink ref="G67" r:id="rId262" xr:uid="{7573A671-B88B-4C9A-92B4-20D0F594AE7C}"/>
-    <hyperlink ref="G66" r:id="rId263" xr:uid="{B247CC4D-39FA-418D-A7B2-BC8E329DADD0}"/>
-    <hyperlink ref="I66" r:id="rId264" xr:uid="{87F49A6F-FACF-4A2B-93CF-96A52D3C477A}"/>
-    <hyperlink ref="I67" r:id="rId265" xr:uid="{8036A3E1-0437-45E7-AF73-AF858F4D8519}"/>
-    <hyperlink ref="G65" r:id="rId266" xr:uid="{F2788AE1-D2CE-450D-AC02-F0EE185DBEEE}"/>
-    <hyperlink ref="D68" r:id="rId267" xr:uid="{32117A67-BE27-4004-AB83-009CD4B78885}"/>
-    <hyperlink ref="Q69" r:id="rId268" xr:uid="{BD2359EC-513C-40AD-904C-00F850900AB1}"/>
-    <hyperlink ref="I69" r:id="rId269" xr:uid="{7ED4DD1C-4119-4DF9-BB0D-8613A0F16079}"/>
-    <hyperlink ref="D69" r:id="rId270" xr:uid="{052DD5C8-7AD4-40BE-8E9A-774C7A2B6D47}"/>
-    <hyperlink ref="I70" r:id="rId271" xr:uid="{6DDA33EE-E586-4AE1-AE69-A6E77813D118}"/>
-    <hyperlink ref="G68" r:id="rId272" xr:uid="{DFDB85C6-AF15-4B9D-9372-748B87DBFFB9}"/>
-    <hyperlink ref="G69" r:id="rId273" xr:uid="{9C4178FD-8438-41A4-8552-FFC868431EF8}"/>
-    <hyperlink ref="G70" r:id="rId274" xr:uid="{E9D9D88C-3C63-4769-9085-8A1EF26AD68B}"/>
-    <hyperlink ref="G71" r:id="rId275" xr:uid="{5A03E9A0-2311-4180-A399-42C1B6C8E0BD}"/>
-    <hyperlink ref="D70" r:id="rId276" xr:uid="{8AD7EDB9-BE2F-4C33-88FE-A0A7648370B3}"/>
-    <hyperlink ref="D71" r:id="rId277" xr:uid="{4805A2BA-91EC-402A-994A-BF9F55763C83}"/>
-    <hyperlink ref="D73" r:id="rId278" xr:uid="{FFEA55A0-81EB-4C27-8900-CB8D7D156E8B}"/>
-    <hyperlink ref="D77" r:id="rId279" xr:uid="{01BD8F6A-9CE3-4ABC-9656-442B532BF8D9}"/>
-    <hyperlink ref="O75" r:id="rId280" xr:uid="{3F0B1C60-66B3-4FEB-8579-C3120BE5D842}"/>
-    <hyperlink ref="I75" r:id="rId281" xr:uid="{FD670FE2-3873-41FC-A28F-CE40193F503D}"/>
-    <hyperlink ref="D75" r:id="rId282" xr:uid="{CDCFC400-C232-43BC-8BC4-52E29AF156D9}"/>
-    <hyperlink ref="I76" r:id="rId283" xr:uid="{F4C0BFFC-D372-4303-8624-5A6A9099ED00}"/>
-    <hyperlink ref="D76" r:id="rId284" xr:uid="{2407A461-2214-47F2-A0D8-F781EF4CEFEB}"/>
-    <hyperlink ref="Q79" r:id="rId285" xr:uid="{598CE35E-9F1E-44DB-A119-9005C2C3B094}"/>
-    <hyperlink ref="L79" r:id="rId286" xr:uid="{C872D2FD-F77C-4C34-8C07-513AD1CB47DE}"/>
-    <hyperlink ref="D83" r:id="rId287" xr:uid="{ACF83289-F988-4A80-8F28-E254B1DE9D16}"/>
-    <hyperlink ref="D85" r:id="rId288" xr:uid="{235EBB9D-139B-4A35-A121-DCB8717E163A}"/>
-    <hyperlink ref="D91" r:id="rId289" xr:uid="{C2AD59E4-5910-461E-80F2-423CE9188437}"/>
-    <hyperlink ref="D87" r:id="rId290" xr:uid="{924C02E4-4A27-4843-996E-3770A0A0E22C}"/>
-    <hyperlink ref="D79" r:id="rId291" xr:uid="{05B4B134-990F-444B-992F-3BD4B96408F8}"/>
-    <hyperlink ref="F91" r:id="rId292" xr:uid="{75872440-BB68-41AC-AD50-4617E01A2C1F}"/>
-    <hyperlink ref="F89" r:id="rId293" xr:uid="{85AAFEE9-8496-4B60-8B5F-6BA45960CEF8}"/>
-    <hyperlink ref="F90" r:id="rId294" xr:uid="{8DB7A2DC-AE84-497B-AA80-980FEA0C2461}"/>
-    <hyperlink ref="F86" r:id="rId295" xr:uid="{356A0362-5056-40B6-A1AE-36167144E45D}"/>
-    <hyperlink ref="I89" r:id="rId296" xr:uid="{1E2D791A-3270-4F40-9D96-0A8055E3440E}"/>
-    <hyperlink ref="D89" r:id="rId297" xr:uid="{5422BEB4-C821-4AE3-9DCB-F8AA3BEB3644}"/>
-    <hyperlink ref="D90" r:id="rId298" xr:uid="{5227DBA5-7736-406E-A782-505223551A1F}"/>
-    <hyperlink ref="D96" r:id="rId299" xr:uid="{BB3AB5F2-8718-4C6B-A126-B7FF859DBD54}"/>
-    <hyperlink ref="D97" r:id="rId300" xr:uid="{276F3181-4219-47E3-AF15-C572D0415164}"/>
-    <hyperlink ref="P94" r:id="rId301" xr:uid="{A2142820-5CCF-4117-9AC0-0BD85DE215F0}"/>
-    <hyperlink ref="D94" r:id="rId302" xr:uid="{859F9812-7B7E-47B2-A92C-40FCC2A0269F}"/>
-    <hyperlink ref="D93" r:id="rId303" xr:uid="{DE02617F-8B2D-45F6-A508-FFBADA191E44}"/>
-    <hyperlink ref="D103" r:id="rId304" xr:uid="{6D07EA20-A128-4C01-A942-0E43F94D272D}"/>
-    <hyperlink ref="H103" r:id="rId305" xr:uid="{53AA048C-DE22-45A2-9A6D-4C10449A03E7}"/>
-    <hyperlink ref="I102" r:id="rId306" xr:uid="{483C5FAD-6714-4B51-A791-89AAB01E85DE}"/>
-    <hyperlink ref="D102" r:id="rId307" xr:uid="{3590EA83-1797-48C3-817C-A05DE1284E1F}"/>
-    <hyperlink ref="I101" r:id="rId308" xr:uid="{431341F9-0375-4306-B059-90FFB05A5CA7}"/>
-    <hyperlink ref="D101" r:id="rId309" xr:uid="{A8502660-4B9F-4222-8A16-CDBD8903D427}"/>
-    <hyperlink ref="D100" r:id="rId310" xr:uid="{A09BE527-AD2A-410F-A248-E3D30305345C}"/>
-    <hyperlink ref="D105" r:id="rId311" xr:uid="{93C4FA1C-DBBF-4BE7-BFF7-CA7E579A3F02}"/>
-    <hyperlink ref="D107" r:id="rId312" xr:uid="{D9003731-DB86-46BB-8EA6-7D28C00234E5}"/>
-    <hyperlink ref="D109" r:id="rId313" xr:uid="{73A01928-8FD6-4210-820E-471FBD54C05D}"/>
-    <hyperlink ref="P109" r:id="rId314" xr:uid="{13461B74-53DC-4D7C-A1EA-267BA2A70392}"/>
-    <hyperlink ref="D99" r:id="rId315" xr:uid="{E2070DD4-FAAA-450E-AEB5-A4E19D8D0C85}"/>
-    <hyperlink ref="F5" r:id="rId316" xr:uid="{D59F2459-CA21-41F5-9703-EBB3E7B0C875}"/>
-    <hyperlink ref="F8" r:id="rId317" xr:uid="{6B509643-E0CC-4113-B97F-EA4F87AC70DC}"/>
-    <hyperlink ref="F12" r:id="rId318" xr:uid="{E4E44754-A272-4C42-89B5-5C589290DAED}"/>
-    <hyperlink ref="F16" r:id="rId319" xr:uid="{075313C1-EAA6-4D54-9C44-18B188D36C75}"/>
-    <hyperlink ref="F17" r:id="rId320" xr:uid="{37258420-4DEB-4DF3-84B6-355EF48ADBBE}"/>
-    <hyperlink ref="F18" r:id="rId321" xr:uid="{C331738F-2133-4D99-A26B-A6DD3E0E0DEF}"/>
-    <hyperlink ref="F29" r:id="rId322" xr:uid="{361D84FC-54B7-44A6-A31E-0C453830523B}"/>
-    <hyperlink ref="F28" r:id="rId323" xr:uid="{CB88128D-BD1D-4747-9B3A-EBCDE2F1D758}"/>
-    <hyperlink ref="F31" r:id="rId324" xr:uid="{C09312ED-154A-4ABD-A40E-91A3A013DB0F}"/>
-    <hyperlink ref="F30" r:id="rId325" xr:uid="{D70FE553-40EC-4D7B-BB57-9FF9A0C6424B}"/>
-    <hyperlink ref="F42" r:id="rId326" xr:uid="{3D087934-3A2D-4322-A117-BE842B4D8446}"/>
-    <hyperlink ref="F46" r:id="rId327" xr:uid="{0781DAD2-2B65-4583-96AD-041A24CAC321}"/>
-    <hyperlink ref="F50" r:id="rId328" xr:uid="{6EECABA7-297D-4B4C-8FA9-AE9217E7575D}"/>
-    <hyperlink ref="F49" r:id="rId329" xr:uid="{0F26E52F-404C-45B0-B54C-47906EF7B33D}"/>
-    <hyperlink ref="F47" r:id="rId330" xr:uid="{B714BAB7-284D-4CE4-838E-DB5D30973CE9}"/>
-    <hyperlink ref="F48" r:id="rId331" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{51680BD4-F97A-4DFE-A690-D869F3871C8F}"/>
-    <hyperlink ref="F52" r:id="rId332" xr:uid="{70A2AB5E-061B-4CA8-984C-64B8826C1635}"/>
-    <hyperlink ref="F55" r:id="rId333" xr:uid="{84174444-AB2E-4F6D-94E4-2360A364FA31}"/>
-    <hyperlink ref="F56" r:id="rId334" xr:uid="{7364FB7C-BE59-4167-B734-97F8E83AFC06}"/>
-    <hyperlink ref="F57" r:id="rId335" xr:uid="{81C4A14A-DFCB-4207-8AA4-97B0DD64EE8F}"/>
-    <hyperlink ref="F58" r:id="rId336" xr:uid="{9BDEB911-EABC-4A33-BF57-92022D9E73C3}"/>
-    <hyperlink ref="F59" r:id="rId337" xr:uid="{E5BD774D-9188-4E87-B20B-A90D04EA84D3}"/>
-    <hyperlink ref="F53" r:id="rId338" xr:uid="{C8F9BB15-686B-4984-A6D8-3196A3551FF6}"/>
-    <hyperlink ref="F60" r:id="rId339" xr:uid="{53D0A34F-945C-4932-A709-C498AE6498EE}"/>
-    <hyperlink ref="F59:F61" r:id="rId340" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{424DBA2B-3CA2-4DFE-A9C7-E71E21123144}"/>
-    <hyperlink ref="F71" r:id="rId341" xr:uid="{8FCF12A3-F2AA-437A-A0DD-BC70FF6772F0}"/>
-    <hyperlink ref="F70" r:id="rId342" xr:uid="{B4FE5CC6-067A-426E-953A-F8F6500D09BB}"/>
-    <hyperlink ref="F69" r:id="rId343" xr:uid="{A429EAA1-6623-49B3-B936-80CC4405FABD}"/>
-    <hyperlink ref="F66" r:id="rId344" xr:uid="{DBCD8E16-431D-4743-9452-CBA72D2BF3B6}"/>
-    <hyperlink ref="F67" r:id="rId345" xr:uid="{8FD8A5FC-5CC8-4A05-B38E-4C6D8A636B35}"/>
-    <hyperlink ref="F65" r:id="rId346" xr:uid="{38E4C015-E85E-40A7-85CD-DACEF9F704FE}"/>
-    <hyperlink ref="F73" r:id="rId347" xr:uid="{D50FFE10-524E-4073-B7EC-7A3E5C422AA4}"/>
-    <hyperlink ref="F75:F77" r:id="rId348" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{D05AA301-F637-4857-99BD-3EA5D17EC6F0}"/>
-    <hyperlink ref="F74" r:id="rId349" xr:uid="{973C5AF0-7DA2-45F8-980E-0632EEF6792E}"/>
-    <hyperlink ref="F79" r:id="rId350" xr:uid="{52602382-D43E-4352-9763-7E7FB793638F}"/>
-    <hyperlink ref="F82" r:id="rId351" xr:uid="{FBFD5F4B-6755-45B1-A18C-16108AB80ECF}"/>
-    <hyperlink ref="F81" r:id="rId352" xr:uid="{C6940972-19E5-4391-9F54-54A60F88BFBF}"/>
-    <hyperlink ref="F95" r:id="rId353" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{623A4FCF-3D94-40F5-A086-3AA06155CFA2}"/>
-    <hyperlink ref="F99" r:id="rId354" xr:uid="{4C10289C-A42B-4287-B22C-7335FF256DF2}"/>
-    <hyperlink ref="F100" r:id="rId355" xr:uid="{8D3BC541-F511-459D-88AB-76938FD7A596}"/>
-    <hyperlink ref="F103" r:id="rId356" xr:uid="{78C1B2F3-9E97-4113-AF0B-C1192B78BC37}"/>
-    <hyperlink ref="O110" r:id="rId357" display="https://www.ncbi.nlm.nih.gov/pubmed/21198744" xr:uid="{5AE4B5D9-B2AB-44A8-B3FF-775C671F1A5A}"/>
-    <hyperlink ref="J110" r:id="rId358" display="https://www.ncbi.nlm.nih.gov/pubmed/12241719" xr:uid="{45833D02-C0BD-442A-B80F-2D80D23B6B5A}"/>
-    <hyperlink ref="R110" r:id="rId359" display="https://www.ncbi.nlm.nih.gov/pubmed/25671699" xr:uid="{C75951EA-3285-4A59-A042-4303B558F4AF}"/>
-    <hyperlink ref="G110" r:id="rId360" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{77219ACB-1FA7-4B97-B870-166CB0F485E7}"/>
-    <hyperlink ref="F110" r:id="rId361" xr:uid="{66011266-D19C-48C7-829F-72995DF2B709}"/>
-    <hyperlink ref="F114" r:id="rId362" xr:uid="{A20DBC64-9262-4ECB-84B7-3A7A35665E44}"/>
-    <hyperlink ref="F113" r:id="rId363" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{84BD4C07-9B81-40D4-ADE7-DCA2EA8768D2}"/>
-    <hyperlink ref="F116" r:id="rId364" xr:uid="{D8604726-FEDA-4C78-B0D7-1CDEE411AECF}"/>
-    <hyperlink ref="F120" r:id="rId365" xr:uid="{9788022B-7383-4D7A-A934-B37A83E28265}"/>
-    <hyperlink ref="F119" r:id="rId366" xr:uid="{13DE8CEB-DC89-43F3-B0A5-8AB2722D086C}"/>
-    <hyperlink ref="F125" r:id="rId367" xr:uid="{488105DF-E0E9-402D-ABFE-4C45DE3DD8DB}"/>
-    <hyperlink ref="F128" r:id="rId368" xr:uid="{62C3A0B8-1951-4472-92DF-DEDC039C7786}"/>
-    <hyperlink ref="F127" r:id="rId369" xr:uid="{19BDC0F2-BAD9-4701-AC2D-CB7497080E34}"/>
-    <hyperlink ref="F130" r:id="rId370" xr:uid="{46C1DB33-57E6-4BB4-A047-8EA9D9AE0489}"/>
-    <hyperlink ref="F131" r:id="rId371" xr:uid="{5EC901DA-7C49-4015-95C3-E093C62A5AAC}"/>
-    <hyperlink ref="F133" r:id="rId372" xr:uid="{7CE82622-EAD1-450E-A0A9-2DCC0C922048}"/>
-    <hyperlink ref="F135" r:id="rId373" xr:uid="{BFC7CAFD-3F88-40E8-A7CC-5910F09B8F7F}"/>
-    <hyperlink ref="F138" r:id="rId374" xr:uid="{43FD4D8C-90A2-4B72-9193-595A180274C1}"/>
-    <hyperlink ref="F141" r:id="rId375" xr:uid="{F92C5E2F-9351-4B19-982F-C293E104ECFF}"/>
-    <hyperlink ref="F144" r:id="rId376" xr:uid="{744070FB-CDE4-4D53-B1DA-C7AA185D6999}"/>
-    <hyperlink ref="F146" r:id="rId377" xr:uid="{FFF015C4-D421-4734-8C13-10AD04710ECA}"/>
-    <hyperlink ref="F154" r:id="rId378" xr:uid="{69E0B42F-86B7-4852-8964-83F600EF5E73}"/>
-    <hyperlink ref="F152" r:id="rId379" xr:uid="{61A49A4B-ACF6-4AE6-BE31-D2DE1B2BD220}"/>
-    <hyperlink ref="F155" r:id="rId380" xr:uid="{2AB9033A-275F-4C1D-952A-3AEF149B0113}"/>
-    <hyperlink ref="F156" r:id="rId381" xr:uid="{6261F7B1-B72F-40C1-A6A7-627D07C52984}"/>
-    <hyperlink ref="F150" r:id="rId382" xr:uid="{88AC6339-C4D3-4D13-9EB2-96F86EF15DB6}"/>
-    <hyperlink ref="F153" r:id="rId383" xr:uid="{1838A68B-CC67-48DE-BFFE-D4D8C6B442A6}"/>
-    <hyperlink ref="F151" r:id="rId384" xr:uid="{968C2E4B-E4AC-49E2-9B69-B83878B0155A}"/>
-    <hyperlink ref="F160" r:id="rId385" xr:uid="{29EF1F61-5A4E-4BFB-A5A6-300E22CE9975}"/>
-    <hyperlink ref="F166" r:id="rId386" xr:uid="{A01C83E1-C5E9-4A93-8D9F-455DEBD1BCE0}"/>
-    <hyperlink ref="F164" r:id="rId387" xr:uid="{A56BB7C0-1E00-42D4-A2E0-ED2EB23D1839}"/>
-    <hyperlink ref="F168" r:id="rId388" xr:uid="{5477CAB6-085E-473C-B8DA-94E2DA3C38C2}"/>
-    <hyperlink ref="F170" r:id="rId389" xr:uid="{0533883B-1217-4D50-8613-521991B1FFEE}"/>
-    <hyperlink ref="F175" r:id="rId390" xr:uid="{A139CDD2-32F8-4A0A-8C7B-66D97AA268BB}"/>
-    <hyperlink ref="F180" r:id="rId391" xr:uid="{192B1B62-9971-499F-AB05-742A8BFF9309}"/>
-    <hyperlink ref="F178:F180" r:id="rId392" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{9F4548A0-54E4-4B7F-BAC6-AD35F9EBB4DB}"/>
+    <hyperlink ref="O32" r:id="rId231" xr:uid="{32A80BC3-36E9-4651-A412-F63EB0CBC3C7}"/>
+    <hyperlink ref="O33" r:id="rId232" xr:uid="{89F49EB7-E752-451A-991A-5D9E0F66046C}"/>
+    <hyperlink ref="I28" r:id="rId233" xr:uid="{7B436C06-1944-4291-B712-96BAD5B97980}"/>
+    <hyperlink ref="I30" r:id="rId234" xr:uid="{F3E8D0F9-5354-4703-A129-42F33E6DB131}"/>
+    <hyperlink ref="G32" r:id="rId235" xr:uid="{153F0C76-E414-4959-A247-964A1C32AE3E}"/>
+    <hyperlink ref="H38" r:id="rId236" xr:uid="{EB97D7BB-CA80-4D85-8221-D52E6C572E2B}"/>
+    <hyperlink ref="H43" r:id="rId237" xr:uid="{13A00730-199E-4D46-A7F9-CB103C43C253}"/>
+    <hyperlink ref="L37" r:id="rId238" xr:uid="{B6973A0E-FA7A-4555-9453-1ACFE472D84C}"/>
+    <hyperlink ref="L43" r:id="rId239" xr:uid="{9254C69E-55BF-4F9E-9F92-FA5B57CB7EE8}"/>
+    <hyperlink ref="M37" r:id="rId240" xr:uid="{869209C2-B41E-4F58-86E9-87D340884D0B}"/>
+    <hyperlink ref="D45" r:id="rId241" xr:uid="{E85168A4-1DD3-471B-9E34-FB173BA795FF}"/>
+    <hyperlink ref="D49" r:id="rId242" xr:uid="{7DE847EB-7790-4D51-B8E0-BEE1885434F1}"/>
+    <hyperlink ref="D48" r:id="rId243" xr:uid="{5BEBFD6F-DCD4-4390-B584-C38A7FB52CE3}"/>
+    <hyperlink ref="I48" r:id="rId244" xr:uid="{91C8B0F2-96B7-4051-BD48-06D67C083BA1}"/>
+    <hyperlink ref="J48" r:id="rId245" xr:uid="{991F696C-71D3-4074-AEF9-889326D54185}"/>
+    <hyperlink ref="L48" r:id="rId246" xr:uid="{FAAC7830-0720-417B-931F-3875F1863223}"/>
+    <hyperlink ref="M48" r:id="rId247" xr:uid="{A5CA2205-B6DA-4280-8D63-73E5C9601D6B}"/>
+    <hyperlink ref="N48" r:id="rId248" xr:uid="{5D77EF79-CD25-40A7-80FC-798224630A70}"/>
+    <hyperlink ref="Q48" r:id="rId249" xr:uid="{20EA59B1-1D94-4AEA-AF93-E359EEB5466D}"/>
+    <hyperlink ref="D57" r:id="rId250" xr:uid="{2981B6CA-C3D7-4604-A572-198149F270A7}"/>
+    <hyperlink ref="D51" r:id="rId251" xr:uid="{E5B3DBAA-B602-4D30-BF02-A070B98F9E2D}"/>
+    <hyperlink ref="D54" r:id="rId252" xr:uid="{C2E040B5-0FD3-4F18-ACDF-2A9F0A290CA3}"/>
+    <hyperlink ref="D56" r:id="rId253" xr:uid="{8A33E44B-A7EB-4344-B9CC-AB866EDDF474}"/>
+    <hyperlink ref="D53" r:id="rId254" xr:uid="{656B027A-6D35-4265-A8C4-EC2168D1B5DB}"/>
+    <hyperlink ref="D60" r:id="rId255" xr:uid="{0F5A123E-BC6B-4668-8BEB-1BF42B567A09}"/>
+    <hyperlink ref="H60" r:id="rId256" xr:uid="{6058CDEB-3729-4AE5-87A7-E76899973570}"/>
+    <hyperlink ref="D55" r:id="rId257" xr:uid="{778C393A-912B-484C-97D2-FFA9CE1FF480}"/>
+    <hyperlink ref="D62" r:id="rId258" xr:uid="{6EA097DF-5D8F-4865-88E1-7C90735107EF}"/>
+    <hyperlink ref="D64" r:id="rId259" xr:uid="{F94B5388-9249-4B29-B2AB-8B186207E894}"/>
+    <hyperlink ref="D65" r:id="rId260" xr:uid="{2D78BB74-165A-4E21-BE58-DD4725B74138}"/>
+    <hyperlink ref="D66" r:id="rId261" xr:uid="{6F2DC36F-EF82-409B-81CD-3E1027F47F22}"/>
+    <hyperlink ref="G66" r:id="rId262" xr:uid="{7573A671-B88B-4C9A-92B4-20D0F594AE7C}"/>
+    <hyperlink ref="G65" r:id="rId263" xr:uid="{B247CC4D-39FA-418D-A7B2-BC8E329DADD0}"/>
+    <hyperlink ref="I65" r:id="rId264" xr:uid="{87F49A6F-FACF-4A2B-93CF-96A52D3C477A}"/>
+    <hyperlink ref="I66" r:id="rId265" xr:uid="{8036A3E1-0437-45E7-AF73-AF858F4D8519}"/>
+    <hyperlink ref="G64" r:id="rId266" xr:uid="{F2788AE1-D2CE-450D-AC02-F0EE185DBEEE}"/>
+    <hyperlink ref="D67" r:id="rId267" xr:uid="{32117A67-BE27-4004-AB83-009CD4B78885}"/>
+    <hyperlink ref="Q68" r:id="rId268" xr:uid="{BD2359EC-513C-40AD-904C-00F850900AB1}"/>
+    <hyperlink ref="I68" r:id="rId269" xr:uid="{7ED4DD1C-4119-4DF9-BB0D-8613A0F16079}"/>
+    <hyperlink ref="D68" r:id="rId270" xr:uid="{052DD5C8-7AD4-40BE-8E9A-774C7A2B6D47}"/>
+    <hyperlink ref="I69" r:id="rId271" xr:uid="{6DDA33EE-E586-4AE1-AE69-A6E77813D118}"/>
+    <hyperlink ref="G67" r:id="rId272" xr:uid="{DFDB85C6-AF15-4B9D-9372-748B87DBFFB9}"/>
+    <hyperlink ref="G68" r:id="rId273" xr:uid="{9C4178FD-8438-41A4-8552-FFC868431EF8}"/>
+    <hyperlink ref="G69" r:id="rId274" xr:uid="{E9D9D88C-3C63-4769-9085-8A1EF26AD68B}"/>
+    <hyperlink ref="G70" r:id="rId275" xr:uid="{5A03E9A0-2311-4180-A399-42C1B6C8E0BD}"/>
+    <hyperlink ref="D69" r:id="rId276" xr:uid="{8AD7EDB9-BE2F-4C33-88FE-A0A7648370B3}"/>
+    <hyperlink ref="D70" r:id="rId277" xr:uid="{4805A2BA-91EC-402A-994A-BF9F55763C83}"/>
+    <hyperlink ref="D72" r:id="rId278" xr:uid="{FFEA55A0-81EB-4C27-8900-CB8D7D156E8B}"/>
+    <hyperlink ref="D76" r:id="rId279" xr:uid="{01BD8F6A-9CE3-4ABC-9656-442B532BF8D9}"/>
+    <hyperlink ref="O74" r:id="rId280" xr:uid="{3F0B1C60-66B3-4FEB-8579-C3120BE5D842}"/>
+    <hyperlink ref="I74" r:id="rId281" xr:uid="{FD670FE2-3873-41FC-A28F-CE40193F503D}"/>
+    <hyperlink ref="D74" r:id="rId282" xr:uid="{CDCFC400-C232-43BC-8BC4-52E29AF156D9}"/>
+    <hyperlink ref="I75" r:id="rId283" xr:uid="{F4C0BFFC-D372-4303-8624-5A6A9099ED00}"/>
+    <hyperlink ref="D75" r:id="rId284" xr:uid="{2407A461-2214-47F2-A0D8-F781EF4CEFEB}"/>
+    <hyperlink ref="Q78" r:id="rId285" xr:uid="{598CE35E-9F1E-44DB-A119-9005C2C3B094}"/>
+    <hyperlink ref="L78" r:id="rId286" xr:uid="{C872D2FD-F77C-4C34-8C07-513AD1CB47DE}"/>
+    <hyperlink ref="D82" r:id="rId287" xr:uid="{ACF83289-F988-4A80-8F28-E254B1DE9D16}"/>
+    <hyperlink ref="D84" r:id="rId288" xr:uid="{235EBB9D-139B-4A35-A121-DCB8717E163A}"/>
+    <hyperlink ref="D90" r:id="rId289" xr:uid="{C2AD59E4-5910-461E-80F2-423CE9188437}"/>
+    <hyperlink ref="D86" r:id="rId290" xr:uid="{924C02E4-4A27-4843-996E-3770A0A0E22C}"/>
+    <hyperlink ref="D78" r:id="rId291" xr:uid="{05B4B134-990F-444B-992F-3BD4B96408F8}"/>
+    <hyperlink ref="F90" r:id="rId292" xr:uid="{75872440-BB68-41AC-AD50-4617E01A2C1F}"/>
+    <hyperlink ref="F88" r:id="rId293" xr:uid="{85AAFEE9-8496-4B60-8B5F-6BA45960CEF8}"/>
+    <hyperlink ref="F89" r:id="rId294" xr:uid="{8DB7A2DC-AE84-497B-AA80-980FEA0C2461}"/>
+    <hyperlink ref="F85" r:id="rId295" xr:uid="{356A0362-5056-40B6-A1AE-36167144E45D}"/>
+    <hyperlink ref="I88" r:id="rId296" xr:uid="{1E2D791A-3270-4F40-9D96-0A8055E3440E}"/>
+    <hyperlink ref="D88" r:id="rId297" xr:uid="{5422BEB4-C821-4AE3-9DCB-F8AA3BEB3644}"/>
+    <hyperlink ref="D89" r:id="rId298" xr:uid="{5227DBA5-7736-406E-A782-505223551A1F}"/>
+    <hyperlink ref="D95" r:id="rId299" xr:uid="{BB3AB5F2-8718-4C6B-A126-B7FF859DBD54}"/>
+    <hyperlink ref="D96" r:id="rId300" xr:uid="{276F3181-4219-47E3-AF15-C572D0415164}"/>
+    <hyperlink ref="P93" r:id="rId301" xr:uid="{A2142820-5CCF-4117-9AC0-0BD85DE215F0}"/>
+    <hyperlink ref="D93" r:id="rId302" xr:uid="{859F9812-7B7E-47B2-A92C-40FCC2A0269F}"/>
+    <hyperlink ref="D92" r:id="rId303" xr:uid="{DE02617F-8B2D-45F6-A508-FFBADA191E44}"/>
+    <hyperlink ref="D101" r:id="rId304" xr:uid="{6D07EA20-A128-4C01-A942-0E43F94D272D}"/>
+    <hyperlink ref="H101" r:id="rId305" xr:uid="{53AA048C-DE22-45A2-9A6D-4C10449A03E7}"/>
+    <hyperlink ref="I100" r:id="rId306" xr:uid="{483C5FAD-6714-4B51-A791-89AAB01E85DE}"/>
+    <hyperlink ref="D100" r:id="rId307" xr:uid="{3590EA83-1797-48C3-817C-A05DE1284E1F}"/>
+    <hyperlink ref="I99" r:id="rId308" xr:uid="{431341F9-0375-4306-B059-90FFB05A5CA7}"/>
+    <hyperlink ref="D99" r:id="rId309" xr:uid="{A8502660-4B9F-4222-8A16-CDBD8903D427}"/>
+    <hyperlink ref="D98" r:id="rId310" xr:uid="{A09BE527-AD2A-410F-A248-E3D30305345C}"/>
+    <hyperlink ref="D103" r:id="rId311" xr:uid="{93C4FA1C-DBBF-4BE7-BFF7-CA7E579A3F02}"/>
+    <hyperlink ref="D105" r:id="rId312" xr:uid="{D9003731-DB86-46BB-8EA6-7D28C00234E5}"/>
+    <hyperlink ref="D107" r:id="rId313" xr:uid="{73A01928-8FD6-4210-820E-471FBD54C05D}"/>
+    <hyperlink ref="P107" r:id="rId314" xr:uid="{13461B74-53DC-4D7C-A1EA-267BA2A70392}"/>
+    <hyperlink ref="F5" r:id="rId315" xr:uid="{D59F2459-CA21-41F5-9703-EBB3E7B0C875}"/>
+    <hyperlink ref="F8" r:id="rId316" xr:uid="{6B509643-E0CC-4113-B97F-EA4F87AC70DC}"/>
+    <hyperlink ref="F12" r:id="rId317" xr:uid="{E4E44754-A272-4C42-89B5-5C589290DAED}"/>
+    <hyperlink ref="F16" r:id="rId318" xr:uid="{37258420-4DEB-4DF3-84B6-355EF48ADBBE}"/>
+    <hyperlink ref="F17" r:id="rId319" xr:uid="{C331738F-2133-4D99-A26B-A6DD3E0E0DEF}"/>
+    <hyperlink ref="F28" r:id="rId320" xr:uid="{361D84FC-54B7-44A6-A31E-0C453830523B}"/>
+    <hyperlink ref="F27" r:id="rId321" xr:uid="{CB88128D-BD1D-4747-9B3A-EBCDE2F1D758}"/>
+    <hyperlink ref="F30" r:id="rId322" xr:uid="{C09312ED-154A-4ABD-A40E-91A3A013DB0F}"/>
+    <hyperlink ref="F29" r:id="rId323" xr:uid="{D70FE553-40EC-4D7B-BB57-9FF9A0C6424B}"/>
+    <hyperlink ref="F41" r:id="rId324" xr:uid="{3D087934-3A2D-4322-A117-BE842B4D8446}"/>
+    <hyperlink ref="F45" r:id="rId325" xr:uid="{0781DAD2-2B65-4583-96AD-041A24CAC321}"/>
+    <hyperlink ref="F49" r:id="rId326" xr:uid="{6EECABA7-297D-4B4C-8FA9-AE9217E7575D}"/>
+    <hyperlink ref="F48" r:id="rId327" xr:uid="{0F26E52F-404C-45B0-B54C-47906EF7B33D}"/>
+    <hyperlink ref="F46" r:id="rId328" xr:uid="{B714BAB7-284D-4CE4-838E-DB5D30973CE9}"/>
+    <hyperlink ref="F47" r:id="rId329" xr:uid="{51680BD4-F97A-4DFE-A690-D869F3871C8F}"/>
+    <hyperlink ref="F51" r:id="rId330" xr:uid="{70A2AB5E-061B-4CA8-984C-64B8826C1635}"/>
+    <hyperlink ref="F54" r:id="rId331" xr:uid="{84174444-AB2E-4F6D-94E4-2360A364FA31}"/>
+    <hyperlink ref="F55" r:id="rId332" xr:uid="{7364FB7C-BE59-4167-B734-97F8E83AFC06}"/>
+    <hyperlink ref="F56" r:id="rId333" xr:uid="{81C4A14A-DFCB-4207-8AA4-97B0DD64EE8F}"/>
+    <hyperlink ref="F57" r:id="rId334" xr:uid="{9BDEB911-EABC-4A33-BF57-92022D9E73C3}"/>
+    <hyperlink ref="F58" r:id="rId335" xr:uid="{E5BD774D-9188-4E87-B20B-A90D04EA84D3}"/>
+    <hyperlink ref="F52" r:id="rId336" xr:uid="{C8F9BB15-686B-4984-A6D8-3196A3551FF6}"/>
+    <hyperlink ref="F59" r:id="rId337" xr:uid="{53D0A34F-945C-4932-A709-C498AE6498EE}"/>
+    <hyperlink ref="F70" r:id="rId338" xr:uid="{8FCF12A3-F2AA-437A-A0DD-BC70FF6772F0}"/>
+    <hyperlink ref="F69" r:id="rId339" xr:uid="{B4FE5CC6-067A-426E-953A-F8F6500D09BB}"/>
+    <hyperlink ref="F68" r:id="rId340" xr:uid="{A429EAA1-6623-49B3-B936-80CC4405FABD}"/>
+    <hyperlink ref="F65" r:id="rId341" xr:uid="{DBCD8E16-431D-4743-9452-CBA72D2BF3B6}"/>
+    <hyperlink ref="F66" r:id="rId342" xr:uid="{8FD8A5FC-5CC8-4A05-B38E-4C6D8A636B35}"/>
+    <hyperlink ref="F64" r:id="rId343" xr:uid="{38E4C015-E85E-40A7-85CD-DACEF9F704FE}"/>
+    <hyperlink ref="F72" r:id="rId344" xr:uid="{D50FFE10-524E-4073-B7EC-7A3E5C422AA4}"/>
+    <hyperlink ref="F74:F76" r:id="rId345" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{D05AA301-F637-4857-99BD-3EA5D17EC6F0}"/>
+    <hyperlink ref="F73" r:id="rId346" xr:uid="{973C5AF0-7DA2-45F8-980E-0632EEF6792E}"/>
+    <hyperlink ref="F78" r:id="rId347" xr:uid="{52602382-D43E-4352-9763-7E7FB793638F}"/>
+    <hyperlink ref="F81" r:id="rId348" xr:uid="{FBFD5F4B-6755-45B1-A18C-16108AB80ECF}"/>
+    <hyperlink ref="F80" r:id="rId349" xr:uid="{C6940972-19E5-4391-9F54-54A60F88BFBF}"/>
+    <hyperlink ref="F94" r:id="rId350" xr:uid="{623A4FCF-3D94-40F5-A086-3AA06155CFA2}"/>
+    <hyperlink ref="F98" r:id="rId351" xr:uid="{8D3BC541-F511-459D-88AB-76938FD7A596}"/>
+    <hyperlink ref="F101" r:id="rId352" xr:uid="{78C1B2F3-9E97-4113-AF0B-C1192B78BC37}"/>
+    <hyperlink ref="O108" r:id="rId353" display="https://www.ncbi.nlm.nih.gov/pubmed/21198744" xr:uid="{5AE4B5D9-B2AB-44A8-B3FF-775C671F1A5A}"/>
+    <hyperlink ref="J108" r:id="rId354" display="https://www.ncbi.nlm.nih.gov/pubmed/12241719" xr:uid="{45833D02-C0BD-442A-B80F-2D80D23B6B5A}"/>
+    <hyperlink ref="R108" r:id="rId355" display="https://www.ncbi.nlm.nih.gov/pubmed/25671699" xr:uid="{C75951EA-3285-4A59-A042-4303B558F4AF}"/>
+    <hyperlink ref="G108" r:id="rId356" display="https://www.ncbi.nlm.nih.gov/pubmed/28219892" xr:uid="{77219ACB-1FA7-4B97-B870-166CB0F485E7}"/>
+    <hyperlink ref="F108" r:id="rId357" xr:uid="{66011266-D19C-48C7-829F-72995DF2B709}"/>
+    <hyperlink ref="F112" r:id="rId358" xr:uid="{A20DBC64-9262-4ECB-84B7-3A7A35665E44}"/>
+    <hyperlink ref="F111" r:id="rId359" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{84BD4C07-9B81-40D4-ADE7-DCA2EA8768D2}"/>
+    <hyperlink ref="F114" r:id="rId360" xr:uid="{D8604726-FEDA-4C78-B0D7-1CDEE411AECF}"/>
+    <hyperlink ref="F118" r:id="rId361" xr:uid="{9788022B-7383-4D7A-A934-B37A83E28265}"/>
+    <hyperlink ref="F117" r:id="rId362" xr:uid="{13DE8CEB-DC89-43F3-B0A5-8AB2722D086C}"/>
+    <hyperlink ref="F123" r:id="rId363" xr:uid="{488105DF-E0E9-402D-ABFE-4C45DE3DD8DB}"/>
+    <hyperlink ref="F126" r:id="rId364" xr:uid="{62C3A0B8-1951-4472-92DF-DEDC039C7786}"/>
+    <hyperlink ref="F125" r:id="rId365" xr:uid="{19BDC0F2-BAD9-4701-AC2D-CB7497080E34}"/>
+    <hyperlink ref="F128" r:id="rId366" xr:uid="{46C1DB33-57E6-4BB4-A047-8EA9D9AE0489}"/>
+    <hyperlink ref="F129" r:id="rId367" xr:uid="{5EC901DA-7C49-4015-95C3-E093C62A5AAC}"/>
+    <hyperlink ref="F131" r:id="rId368" xr:uid="{7CE82622-EAD1-450E-A0A9-2DCC0C922048}"/>
+    <hyperlink ref="F133" r:id="rId369" xr:uid="{BFC7CAFD-3F88-40E8-A7CC-5910F09B8F7F}"/>
+    <hyperlink ref="F136" r:id="rId370" xr:uid="{F92C5E2F-9351-4B19-982F-C293E104ECFF}"/>
+    <hyperlink ref="F139" r:id="rId371" xr:uid="{744070FB-CDE4-4D53-B1DA-C7AA185D6999}"/>
+    <hyperlink ref="F141" r:id="rId372" xr:uid="{FFF015C4-D421-4734-8C13-10AD04710ECA}"/>
+    <hyperlink ref="F149" r:id="rId373" xr:uid="{69E0B42F-86B7-4852-8964-83F600EF5E73}"/>
+    <hyperlink ref="F147" r:id="rId374" xr:uid="{61A49A4B-ACF6-4AE6-BE31-D2DE1B2BD220}"/>
+    <hyperlink ref="F150" r:id="rId375" xr:uid="{2AB9033A-275F-4C1D-952A-3AEF149B0113}"/>
+    <hyperlink ref="F151" r:id="rId376" xr:uid="{6261F7B1-B72F-40C1-A6A7-627D07C52984}"/>
+    <hyperlink ref="F145" r:id="rId377" xr:uid="{88AC6339-C4D3-4D13-9EB2-96F86EF15DB6}"/>
+    <hyperlink ref="F148" r:id="rId378" xr:uid="{1838A68B-CC67-48DE-BFFE-D4D8C6B442A6}"/>
+    <hyperlink ref="F146" r:id="rId379" xr:uid="{968C2E4B-E4AC-49E2-9B69-B83878B0155A}"/>
+    <hyperlink ref="F155" r:id="rId380" xr:uid="{29EF1F61-5A4E-4BFB-A5A6-300E22CE9975}"/>
+    <hyperlink ref="F161" r:id="rId381" xr:uid="{A01C83E1-C5E9-4A93-8D9F-455DEBD1BCE0}"/>
+    <hyperlink ref="F159" r:id="rId382" xr:uid="{A56BB7C0-1E00-42D4-A2E0-ED2EB23D1839}"/>
+    <hyperlink ref="F163" r:id="rId383" xr:uid="{5477CAB6-085E-473C-B8DA-94E2DA3C38C2}"/>
+    <hyperlink ref="F165" r:id="rId384" xr:uid="{0533883B-1217-4D50-8613-521991B1FFEE}"/>
+    <hyperlink ref="F170" r:id="rId385" xr:uid="{A139CDD2-32F8-4A0A-8C7B-66D97AA268BB}"/>
+    <hyperlink ref="F175" r:id="rId386" xr:uid="{192B1B62-9971-499F-AB05-742A8BFF9309}"/>
+    <hyperlink ref="F173:F175" r:id="rId387" display="https://www.ncbi.nlm.nih.gov/pubmed/26063326" xr:uid="{9F4548A0-54E4-4B7F-BAC6-AD35F9EBB4DB}"/>
+    <hyperlink ref="G128" r:id="rId388" xr:uid="{3DAC6E6F-856A-4AA0-8241-070B91E712B2}"/>
+    <hyperlink ref="D40" r:id="rId389" xr:uid="{C2E5301B-A339-41E6-9443-E9DF98ACDB2B}"/>
+    <hyperlink ref="D41" r:id="rId390" xr:uid="{1CBCA401-C771-4B6D-B483-AF7E1C9808B8}"/>
+    <hyperlink ref="D42" r:id="rId391" xr:uid="{7C634255-593E-46EE-A1B3-C8BBC452EF15}"/>
+    <hyperlink ref="P41" r:id="rId392" xr:uid="{8301F7D9-8AD6-4524-AC0A-8A87C9A5A5ED}"/>
+    <hyperlink ref="F60" r:id="rId393" xr:uid="{CA8ADDD8-CC1C-4E9B-97A4-2BD47BE9E0CD}"/>
+    <hyperlink ref="F67" r:id="rId394" xr:uid="{F5608958-090D-4D39-B8BD-4D818B7369E6}"/>
+    <hyperlink ref="F74" r:id="rId395" xr:uid="{0A039CA5-DCB5-4A5F-9D6E-8FAFBE05377B}"/>
+    <hyperlink ref="F75" r:id="rId396" xr:uid="{DCB8AF13-A7AF-4B65-B437-EAA09F04180B}"/>
+    <hyperlink ref="F76" r:id="rId397" xr:uid="{64C7FDA0-4E1B-4965-81DB-364947A6E65B}"/>
+    <hyperlink ref="F119" r:id="rId398" xr:uid="{05FCE292-F892-4FB3-9751-F8439291B06F}"/>
+    <hyperlink ref="D110" r:id="rId399" xr:uid="{4E990BCD-CF72-4801-AE67-63BCABD65586}"/>
+    <hyperlink ref="C81" r:id="rId400" display="https://www.ncbi.nlm.nih.gov/projects/sviewer/?id=NC_000011.10&amp;search=NC_000011.10:g.101073644G%3EA&amp;v=1:100&amp;content=5" xr:uid="{A4D16EDD-AF39-47A8-BDBD-2E93656BD041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId393"/>
+  <pageSetup orientation="portrait" r:id="rId401"/>
 </worksheet>
 </file>
 
